--- a/DRL_Automated_Trading/results14/LIN.DE.xlsx
+++ b/DRL_Automated_Trading/results14/LIN.DE.xlsx
@@ -591,22 +591,22 @@
         <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>10353.1660964425</v>
+        <v>10353.08824134135</v>
       </c>
       <c r="E5" t="n">
         <v>5139</v>
       </c>
       <c r="F5" t="n">
-        <v>1014065.161411939</v>
+        <v>1014065.161365254</v>
       </c>
       <c r="G5" t="n">
-        <v>195.3127058407271</v>
+        <v>195.3127209814969</v>
       </c>
       <c r="H5" t="n">
-        <v>672.1771971892981</v>
+        <v>672.1772438743477</v>
       </c>
       <c r="I5" t="n">
-        <v>1004384.172512686</v>
+        <v>1004384.250367787</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -623,13 +623,13 @@
         <v>-1</v>
       </c>
       <c r="D6" t="n">
-        <v>1020707.628495191</v>
+        <v>1020707.55064009</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>1020707.628495191</v>
+        <v>1020707.55064009</v>
       </c>
       <c r="G6" t="n">
         <v>196.7369198321384</v>
@@ -641,7 +641,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>5970.289886062965</v>
+        <v>5970.212030961877</v>
       </c>
     </row>
     <row r="7">
@@ -655,13 +655,13 @@
         <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>10427.59933432186</v>
+        <v>10427.52147922077</v>
       </c>
       <c r="E7" t="n">
         <v>5061</v>
       </c>
       <c r="F7" t="n">
-        <v>1020031.915905249</v>
+        <v>1020031.838050148</v>
       </c>
       <c r="G7" t="n">
         <v>199.4871204447593</v>
@@ -687,13 +687,13 @@
         <v>-1</v>
       </c>
       <c r="D8" t="n">
-        <v>1013891.365608367</v>
+        <v>1013891.287753266</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>1013891.365608367</v>
+        <v>1013891.287753266</v>
       </c>
       <c r="G8" t="n">
         <v>198.4066781254378</v>
@@ -719,22 +719,22 @@
         <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>10271.60324310316</v>
+        <v>10271.60162411777</v>
       </c>
       <c r="E9" t="n">
         <v>5003</v>
       </c>
       <c r="F9" t="n">
-        <v>1013219.646782243</v>
+        <v>1013219.568972857</v>
       </c>
       <c r="G9" t="n">
-        <v>200.4693271115611</v>
+        <v>200.4693118826182</v>
       </c>
       <c r="H9" t="n">
-        <v>671.7188261234842</v>
+        <v>671.7187804092433</v>
       </c>
       <c r="I9" t="n">
-        <v>1003619.762365264</v>
+        <v>1003619.686129148</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -751,13 +751,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>10271.60324310316</v>
+        <v>10271.60162411777</v>
       </c>
       <c r="E10" t="n">
         <v>5003</v>
       </c>
       <c r="F10" t="n">
-        <v>1008305.629337366</v>
+        <v>1008305.62771838</v>
       </c>
       <c r="G10" t="n">
         <v>199.4871129510819</v>
@@ -766,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>1003619.762365264</v>
+        <v>1003619.686129148</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -783,22 +783,22 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>10271.60324310316</v>
+        <v>10271.60162411777</v>
       </c>
       <c r="E11" t="n">
         <v>5003</v>
       </c>
       <c r="F11" t="n">
-        <v>996266.310100388</v>
+        <v>996266.1558399982</v>
       </c>
       <c r="G11" t="n">
-        <v>197.0806929556836</v>
+        <v>197.0806624457086</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1003619.762365264</v>
+        <v>1003619.686129148</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -815,13 +815,13 @@
         <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>179.1757445857451</v>
+        <v>179.1741256003492</v>
       </c>
       <c r="E12" t="n">
         <v>5055</v>
       </c>
       <c r="F12" t="n">
-        <v>976810.0002307699</v>
+        <v>976809.9986117845</v>
       </c>
       <c r="G12" t="n">
         <v>193.2009543988495</v>
@@ -830,7 +830,7 @@
         <v>45.97786977724411</v>
       </c>
       <c r="I12" t="n">
-        <v>1013712.189863781</v>
+        <v>1013712.113627665</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -847,13 +847,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>179.1757445857451</v>
+        <v>179.1741256003492</v>
       </c>
       <c r="E13" t="n">
         <v>5055</v>
       </c>
       <c r="F13" t="n">
-        <v>978299.5531283019</v>
+        <v>978299.5515093165</v>
       </c>
       <c r="G13" t="n">
         <v>193.4956236169567</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>1013712.189863781</v>
+        <v>1013712.113627665</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -879,13 +879,13 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>179.1757445857451</v>
+        <v>179.1741256003492</v>
       </c>
       <c r="E14" t="n">
         <v>5055</v>
       </c>
       <c r="F14" t="n">
-        <v>991581.1495308098</v>
+        <v>991581.1479118245</v>
       </c>
       <c r="G14" t="n">
         <v>196.1230413029128</v>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1013712.189863781</v>
+        <v>1013712.113627665</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -911,13 +911,13 @@
         <v>-1</v>
       </c>
       <c r="D15" t="n">
-        <v>975905.9667218257</v>
+        <v>975905.9651028403</v>
       </c>
       <c r="E15" t="n">
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>975905.9667218257</v>
+        <v>975905.9651028403</v>
       </c>
       <c r="G15" t="n">
         <v>193.1518438218698</v>
@@ -929,7 +929,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>-37985.39888654125</v>
+        <v>-37985.32265042549</v>
       </c>
     </row>
     <row r="16">
@@ -943,16 +943,16 @@
         <v>-1</v>
       </c>
       <c r="D16" t="n">
-        <v>975905.9667218257</v>
+        <v>975905.9651028403</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>975905.9667218257</v>
+        <v>975905.9651028403</v>
       </c>
       <c r="G16" t="n">
-        <v>192.5870798054109</v>
+        <v>192.5870645446765</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -975,13 +975,13 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>975905.9667218257</v>
+        <v>975905.9651028403</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>975905.9667218257</v>
+        <v>975905.9651028403</v>
       </c>
       <c r="G17" t="n">
         <v>190.2052175210528</v>
@@ -1007,16 +1007,16 @@
         <v>-1</v>
       </c>
       <c r="D18" t="n">
-        <v>975905.9667218257</v>
+        <v>975905.9651028403</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>975905.9667218257</v>
+        <v>975905.9651028403</v>
       </c>
       <c r="G18" t="n">
-        <v>193.8639415804068</v>
+        <v>193.8639567298205</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -1039,13 +1039,13 @@
         <v>-1</v>
       </c>
       <c r="D19" t="n">
-        <v>975905.9667218257</v>
+        <v>975905.9651028403</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>975905.9667218257</v>
+        <v>975905.9651028403</v>
       </c>
       <c r="G19" t="n">
         <v>191.3347491579223</v>
@@ -1071,13 +1071,13 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>975905.9667218257</v>
+        <v>975905.9651028403</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>975905.9667218257</v>
+        <v>975905.9651028403</v>
       </c>
       <c r="G20" t="n">
         <v>188.3390250862419</v>
@@ -1103,22 +1103,22 @@
         <v>1</v>
       </c>
       <c r="D21" t="n">
-        <v>9865.932848593959</v>
+        <v>9865.769739371268</v>
       </c>
       <c r="E21" t="n">
         <v>5242</v>
       </c>
       <c r="F21" t="n">
-        <v>975256.7822122074</v>
+        <v>975256.7804963861</v>
       </c>
       <c r="G21" t="n">
-        <v>184.1646030834822</v>
+        <v>184.1646338719983</v>
       </c>
       <c r="H21" t="n">
-        <v>649.1845096181681</v>
+        <v>649.184606454209</v>
       </c>
       <c r="I21" t="n">
-        <v>966040.0338732317</v>
+        <v>966040.1953634691</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1135,25 +1135,25 @@
         <v>-1</v>
       </c>
       <c r="D22" t="n">
-        <v>966374.5555526514</v>
+        <v>966374.4715521918</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>966374.5555526514</v>
+        <v>966374.4715521918</v>
       </c>
       <c r="G22" t="n">
-        <v>182.5930683751833</v>
+        <v>182.5930834755757</v>
       </c>
       <c r="H22" t="n">
-        <v>644.2417186536267</v>
+        <v>644.2417661473808</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>-9531.411169174244</v>
+        <v>-9531.493550648564</v>
       </c>
     </row>
     <row r="23">
@@ -1164,16 +1164,16 @@
         <v>44134</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D23" t="n">
-        <v>966374.5555526514</v>
+        <v>966374.4715521918</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>966374.5555526514</v>
+        <v>966374.4715521918</v>
       </c>
       <c r="G23" t="n">
         <v>183.3297346239698</v>
@@ -1199,13 +1199,13 @@
         <v>-1</v>
       </c>
       <c r="D24" t="n">
-        <v>966374.5555526514</v>
+        <v>966374.4715521918</v>
       </c>
       <c r="E24" t="n">
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>966374.5555526514</v>
+        <v>966374.4715521918</v>
       </c>
       <c r="G24" t="n">
         <v>188.5354484993518</v>
@@ -1231,13 +1231,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>966374.5555526514</v>
+        <v>966374.4715521918</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>966374.5555526514</v>
+        <v>966374.4715521918</v>
       </c>
       <c r="G25" t="n">
         <v>195.1162754691135</v>
@@ -1263,16 +1263,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>966374.5555526514</v>
+        <v>966374.4715521918</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>966374.5555526514</v>
+        <v>966374.4715521918</v>
       </c>
       <c r="G26" t="n">
-        <v>195.3372820391513</v>
+        <v>195.3372670164203</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -1295,13 +1295,13 @@
         <v>0</v>
       </c>
       <c r="D27" t="n">
-        <v>966374.5555526514</v>
+        <v>966374.4715521918</v>
       </c>
       <c r="E27" t="n">
         <v>0</v>
       </c>
       <c r="F27" t="n">
-        <v>966374.5555526514</v>
+        <v>966374.4715521918</v>
       </c>
       <c r="G27" t="n">
         <v>203.7106242159</v>
@@ -1327,13 +1327,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>966374.5555526514</v>
+        <v>966374.4715521918</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>966374.5555526514</v>
+        <v>966374.4715521918</v>
       </c>
       <c r="G28" t="n">
         <v>207.4921300587847</v>
@@ -1359,13 +1359,13 @@
         <v>1</v>
       </c>
       <c r="D29" t="n">
-        <v>9801.601710114563</v>
+        <v>9801.517709654923</v>
       </c>
       <c r="E29" t="n">
         <v>4442</v>
       </c>
       <c r="F29" t="n">
-        <v>965731.0478849465</v>
+        <v>965730.9638844868</v>
       </c>
       <c r="G29" t="n">
         <v>215.2024867570536</v>
@@ -1391,16 +1391,16 @@
         <v>0</v>
       </c>
       <c r="D30" t="n">
-        <v>9801.601710114563</v>
+        <v>9801.517709654923</v>
       </c>
       <c r="E30" t="n">
         <v>4442</v>
       </c>
       <c r="F30" t="n">
-        <v>975765.9116778099</v>
+        <v>975765.8957644233</v>
       </c>
       <c r="G30" t="n">
-        <v>217.461573608216</v>
+        <v>217.4615889362378</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -1423,25 +1423,25 @@
         <v>-1</v>
       </c>
       <c r="D31" t="n">
-        <v>982529.0095074367</v>
+        <v>982528.8574324611</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>982529.0095074367</v>
+        <v>982528.8574324611</v>
       </c>
       <c r="G31" t="n">
-        <v>219.1313342254164</v>
+        <v>219.1313188910208</v>
       </c>
       <c r="H31" t="n">
-        <v>653.9788319775799</v>
+        <v>653.9787911083488</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>16154.45395478525</v>
+        <v>16154.38588026934</v>
       </c>
     </row>
     <row r="32">
@@ -1455,13 +1455,13 @@
         <v>-1</v>
       </c>
       <c r="D32" t="n">
-        <v>982529.0095074367</v>
+        <v>982528.8574324611</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>982529.0095074367</v>
+        <v>982528.8574324611</v>
       </c>
       <c r="G32" t="n">
         <v>214.8096050276998</v>
@@ -1487,13 +1487,13 @@
         <v>0</v>
       </c>
       <c r="D33" t="n">
-        <v>982529.0095074367</v>
+        <v>982528.8574324611</v>
       </c>
       <c r="E33" t="n">
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>982529.0095074367</v>
+        <v>982528.8574324611</v>
       </c>
       <c r="G33" t="n">
         <v>213.680076520035</v>
@@ -1519,13 +1519,13 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>982529.0095074367</v>
+        <v>982528.8574324611</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>982529.0095074367</v>
+        <v>982528.8574324611</v>
       </c>
       <c r="G34" t="n">
         <v>213.9747290807617</v>
@@ -1551,13 +1551,13 @@
         <v>1</v>
       </c>
       <c r="D35" t="n">
-        <v>9993.654949849833</v>
+        <v>9993.50287487429</v>
       </c>
       <c r="E35" t="n">
         <v>4627</v>
       </c>
       <c r="F35" t="n">
-        <v>981875.9301423212</v>
+        <v>981875.7780673456</v>
       </c>
       <c r="G35" t="n">
         <v>210.0458774999938</v>
@@ -1583,13 +1583,13 @@
         <v>0</v>
       </c>
       <c r="D36" t="n">
-        <v>9993.654949849833</v>
+        <v>9993.50287487429</v>
       </c>
       <c r="E36" t="n">
         <v>4627</v>
       </c>
       <c r="F36" t="n">
-        <v>979149.170592183</v>
+        <v>979149.0185172075</v>
       </c>
       <c r="G36" t="n">
         <v>209.4565627063612</v>
@@ -1615,13 +1615,13 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>9993.654949849833</v>
+        <v>9993.50287487429</v>
       </c>
       <c r="E37" t="n">
         <v>4627</v>
       </c>
       <c r="F37" t="n">
-        <v>972332.0725385818</v>
+        <v>972331.9204636062</v>
       </c>
       <c r="G37" t="n">
         <v>207.9832326753257</v>
@@ -1647,13 +1647,13 @@
         <v>1</v>
       </c>
       <c r="D38" t="n">
-        <v>133.3642885306523</v>
+        <v>133.2122135551087</v>
       </c>
       <c r="E38" t="n">
         <v>4674</v>
       </c>
       <c r="F38" t="n">
-        <v>976149.291987355</v>
+        <v>976149.1399123794</v>
       </c>
       <c r="G38" t="n">
         <v>208.8181274494703</v>
@@ -1679,16 +1679,16 @@
         <v>1</v>
       </c>
       <c r="D39" t="n">
-        <v>133.3642885306523</v>
+        <v>133.2122135551087</v>
       </c>
       <c r="E39" t="n">
         <v>4674</v>
       </c>
       <c r="F39" t="n">
-        <v>987396.8813652184</v>
+        <v>987396.6573180443</v>
       </c>
       <c r="G39" t="n">
-        <v>211.2245436621069</v>
+        <v>211.2245282636905</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -1711,25 +1711,25 @@
         <v>-1</v>
       </c>
       <c r="D40" t="n">
-        <v>982375.7568772407</v>
+        <v>982375.7466931052</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>982375.7568772407</v>
+        <v>982375.7466931052</v>
       </c>
       <c r="G40" t="n">
-        <v>210.2914171670974</v>
+        <v>210.2914475427983</v>
       </c>
       <c r="H40" t="n">
-        <v>659.6912503034081</v>
+        <v>659.6913354890236</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>-153.2526301959297</v>
+        <v>-153.1107393559068</v>
       </c>
     </row>
     <row r="41">
@@ -1743,16 +1743,16 @@
         <v>-1</v>
       </c>
       <c r="D41" t="n">
-        <v>982375.7568772407</v>
+        <v>982375.7466931052</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>982375.7568772407</v>
+        <v>982375.7466931052</v>
       </c>
       <c r="G41" t="n">
-        <v>210.9789956400904</v>
+        <v>210.9789802883904</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -1775,13 +1775,13 @@
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>982375.7568772407</v>
+        <v>982375.7466931052</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>982375.7568772407</v>
+        <v>982375.7466931052</v>
       </c>
       <c r="G42" t="n">
         <v>211.3718617496458</v>
@@ -1807,22 +1807,22 @@
         <v>1</v>
       </c>
       <c r="D43" t="n">
-        <v>10130.80249189457</v>
+        <v>10130.7222248127</v>
       </c>
       <c r="E43" t="n">
         <v>4569</v>
       </c>
       <c r="F43" t="n">
-        <v>981722.8516477472</v>
+        <v>981722.8414215872</v>
       </c>
       <c r="G43" t="n">
-        <v>212.6487303908629</v>
+        <v>212.6487457204584</v>
       </c>
       <c r="H43" t="n">
-        <v>652.9052294935116</v>
+        <v>652.9052715180646</v>
       </c>
       <c r="I43" t="n">
-        <v>972244.9543853462</v>
+        <v>972245.0244682925</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -1839,22 +1839,22 @@
         <v>1</v>
       </c>
       <c r="D44" t="n">
-        <v>81.12604579142081</v>
+        <v>81.04723268326309</v>
       </c>
       <c r="E44" t="n">
         <v>4616</v>
       </c>
       <c r="F44" t="n">
-        <v>982574.5507401694</v>
+        <v>982574.3292139092</v>
       </c>
       <c r="G44" t="n">
-        <v>212.8451959909831</v>
+        <v>212.8451650739224</v>
       </c>
       <c r="H44" t="n">
-        <v>45.95223452694572</v>
+        <v>45.95223365508461</v>
       </c>
       <c r="I44" t="n">
-        <v>982294.6308314493</v>
+        <v>982294.6994604219</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -1871,13 +1871,13 @@
         <v>1</v>
       </c>
       <c r="D45" t="n">
-        <v>81.12604579142081</v>
+        <v>81.04723268326309</v>
       </c>
       <c r="E45" t="n">
         <v>4616</v>
       </c>
       <c r="F45" t="n">
-        <v>983481.2289080014</v>
+        <v>983481.1500948933</v>
       </c>
       <c r="G45" t="n">
         <v>213.0416167379138</v>
@@ -1886,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>982294.6308314493</v>
+        <v>982294.6994604219</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -1903,13 +1903,13 @@
         <v>1</v>
       </c>
       <c r="D46" t="n">
-        <v>81.12604579142081</v>
+        <v>81.04723268326309</v>
       </c>
       <c r="E46" t="n">
         <v>4616</v>
       </c>
       <c r="F46" t="n">
-        <v>963314.6787886443</v>
+        <v>963314.5999755361</v>
       </c>
       <c r="G46" t="n">
         <v>208.6727800569439</v>
@@ -1918,7 +1918,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>982294.6308314493</v>
+        <v>982294.6994604219</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -1935,22 +1935,22 @@
         <v>1</v>
       </c>
       <c r="D47" t="n">
-        <v>81.12604579142081</v>
+        <v>81.04723268326309</v>
       </c>
       <c r="E47" t="n">
         <v>4616</v>
       </c>
       <c r="F47" t="n">
-        <v>944186.5866888503</v>
+        <v>944186.5788581746</v>
       </c>
       <c r="G47" t="n">
-        <v>204.5289126176471</v>
+        <v>204.5289279951238</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
       </c>
       <c r="I47" t="n">
-        <v>982294.6308314493</v>
+        <v>982294.6994604219</v>
       </c>
       <c r="J47" t="n">
         <v>0</v>
@@ -1967,22 +1967,22 @@
         <v>1</v>
       </c>
       <c r="D48" t="n">
-        <v>81.12604579142081</v>
+        <v>81.04723268326309</v>
       </c>
       <c r="E48" t="n">
         <v>4616</v>
       </c>
       <c r="F48" t="n">
-        <v>921870.5092969306</v>
+        <v>921870.5005376632</v>
       </c>
       <c r="G48" t="n">
-        <v>199.6944071167979</v>
+        <v>199.6944222931066</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
       </c>
       <c r="I48" t="n">
-        <v>982294.6308314493</v>
+        <v>982294.6994604219</v>
       </c>
       <c r="J48" t="n">
         <v>0</v>
@@ -1999,13 +1999,13 @@
         <v>0</v>
       </c>
       <c r="D49" t="n">
-        <v>81.12604579142081</v>
+        <v>81.04723268326309</v>
       </c>
       <c r="E49" t="n">
         <v>4616</v>
       </c>
       <c r="F49" t="n">
-        <v>941681.7541302454</v>
+        <v>941681.6753171373</v>
       </c>
       <c r="G49" t="n">
         <v>203.9862712487985</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="I49" t="n">
-        <v>982294.6308314493</v>
+        <v>982294.6994604219</v>
       </c>
       <c r="J49" t="n">
         <v>0</v>
@@ -2031,13 +2031,13 @@
         <v>1</v>
       </c>
       <c r="D50" t="n">
-        <v>81.12604579142081</v>
+        <v>81.04723268326309</v>
       </c>
       <c r="E50" t="n">
         <v>4616</v>
       </c>
       <c r="F50" t="n">
-        <v>934167.1483805436</v>
+        <v>934167.0695674354</v>
       </c>
       <c r="G50" t="n">
         <v>202.3583237293657</v>
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="I50" t="n">
-        <v>982294.6308314493</v>
+        <v>982294.6994604219</v>
       </c>
       <c r="J50" t="n">
         <v>0</v>
@@ -2063,25 +2063,25 @@
         <v>-1</v>
       </c>
       <c r="D51" t="n">
-        <v>944688.1293108301</v>
+        <v>944687.9796101741</v>
       </c>
       <c r="E51" t="n">
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>944688.1293108301</v>
+        <v>944687.9796101741</v>
       </c>
       <c r="G51" t="n">
-        <v>204.7755848624076</v>
+        <v>204.7755694962668</v>
       </c>
       <c r="H51" t="n">
-        <v>637.0964598349242</v>
+        <v>637.0964172768606</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>-37687.62756641058</v>
+        <v>-37687.76708293112</v>
       </c>
     </row>
     <row r="52">
@@ -2095,16 +2095,16 @@
         <v>0</v>
       </c>
       <c r="D52" t="n">
-        <v>944688.1293108301</v>
+        <v>944687.9796101741</v>
       </c>
       <c r="E52" t="n">
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>944688.1293108301</v>
+        <v>944687.9796101741</v>
       </c>
       <c r="G52" t="n">
-        <v>204.6769125881177</v>
+        <v>204.6769279245317</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -2127,13 +2127,13 @@
         <v>1</v>
       </c>
       <c r="D53" t="n">
-        <v>9693.356824302893</v>
+        <v>9693.207123646825</v>
       </c>
       <c r="E53" t="n">
         <v>4614</v>
       </c>
       <c r="F53" t="n">
-        <v>944057.5607884517</v>
+        <v>944057.4110877956</v>
       </c>
       <c r="G53" t="n">
         <v>202.5063294243929</v>
@@ -2159,16 +2159,16 @@
         <v>0</v>
       </c>
       <c r="D54" t="n">
-        <v>9693.356824302893</v>
+        <v>9693.207123646825</v>
       </c>
       <c r="E54" t="n">
         <v>4614</v>
       </c>
       <c r="F54" t="n">
-        <v>950658.4510850483</v>
+        <v>950658.2306724496</v>
       </c>
       <c r="G54" t="n">
-        <v>203.9369515086141</v>
+        <v>203.9369361830955</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -2191,13 +2191,13 @@
         <v>0</v>
       </c>
       <c r="D55" t="n">
-        <v>9693.356824302893</v>
+        <v>9693.207123646825</v>
       </c>
       <c r="E55" t="n">
         <v>4614</v>
       </c>
       <c r="F55" t="n">
-        <v>943829.9526811901</v>
+        <v>943829.802980534</v>
       </c>
       <c r="G55" t="n">
         <v>202.4569995355195</v>
@@ -2223,13 +2223,13 @@
         <v>1</v>
       </c>
       <c r="D56" t="n">
-        <v>259.8668055562132</v>
+        <v>259.7171049001456</v>
       </c>
       <c r="E56" t="n">
         <v>4660</v>
       </c>
       <c r="F56" t="n">
-        <v>951295.6906886074</v>
+        <v>951295.5409879513</v>
       </c>
       <c r="G56" t="n">
         <v>204.0849407474359</v>
@@ -2255,22 +2255,22 @@
         <v>1</v>
       </c>
       <c r="D57" t="n">
-        <v>40.9852680441682</v>
+        <v>40.83555215851506</v>
       </c>
       <c r="E57" t="n">
         <v>4661</v>
       </c>
       <c r="F57" t="n">
-        <v>959328.5616116859</v>
+        <v>959328.4828808985</v>
       </c>
       <c r="G57" t="n">
-        <v>205.811537512045</v>
+        <v>205.8115527416305</v>
       </c>
       <c r="H57" t="n">
         <v>13.07</v>
       </c>
       <c r="I57" t="n">
-        <v>944647.144042786</v>
+        <v>944647.1440580155</v>
       </c>
       <c r="J57" t="n">
         <v>0</v>
@@ -2287,22 +2287,22 @@
         <v>1</v>
       </c>
       <c r="D58" t="n">
-        <v>40.9852680441682</v>
+        <v>40.83555215851506</v>
       </c>
       <c r="E58" t="n">
         <v>4661</v>
       </c>
       <c r="F58" t="n">
-        <v>963927.2556834053</v>
+        <v>963927.177292911</v>
       </c>
       <c r="G58" t="n">
-        <v>206.7981700097321</v>
+        <v>206.7981853123262</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
       </c>
       <c r="I58" t="n">
-        <v>944647.144042786</v>
+        <v>944647.1440580155</v>
       </c>
       <c r="J58" t="n">
         <v>0</v>
@@ -2319,13 +2319,13 @@
         <v>0</v>
       </c>
       <c r="D59" t="n">
-        <v>40.9852680441682</v>
+        <v>40.83555215851506</v>
       </c>
       <c r="E59" t="n">
         <v>4661</v>
       </c>
       <c r="F59" t="n">
-        <v>946682.150841121</v>
+        <v>946682.0011252353</v>
       </c>
       <c r="G59" t="n">
         <v>203.098297698579</v>
@@ -2334,7 +2334,7 @@
         <v>0</v>
       </c>
       <c r="I59" t="n">
-        <v>944647.144042786</v>
+        <v>944647.1440580155</v>
       </c>
       <c r="J59" t="n">
         <v>0</v>
@@ -2351,13 +2351,13 @@
         <v>1</v>
       </c>
       <c r="D60" t="n">
-        <v>40.9852680441682</v>
+        <v>40.83555215851506</v>
       </c>
       <c r="E60" t="n">
         <v>4661</v>
       </c>
       <c r="F60" t="n">
-        <v>951050.9167993164</v>
+        <v>951050.7670834308</v>
       </c>
       <c r="G60" t="n">
         <v>204.0355999852547</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="I60" t="n">
-        <v>944647.144042786</v>
+        <v>944647.1440580155</v>
       </c>
       <c r="J60" t="n">
         <v>0</v>
@@ -2383,13 +2383,13 @@
         <v>-1</v>
       </c>
       <c r="D61" t="n">
-        <v>963049.2469852907</v>
+        <v>963049.097269405</v>
       </c>
       <c r="E61" t="n">
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>963049.2469852907</v>
+        <v>963049.097269405</v>
       </c>
       <c r="G61" t="n">
         <v>206.7488533706464</v>
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>18361.11767446052</v>
+        <v>18361.11765923095</v>
       </c>
     </row>
     <row r="62">
@@ -2415,13 +2415,13 @@
         <v>0</v>
       </c>
       <c r="D62" t="n">
-        <v>963049.2469852907</v>
+        <v>963049.097269405</v>
       </c>
       <c r="E62" t="n">
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>963049.2469852907</v>
+        <v>963049.097269405</v>
       </c>
       <c r="G62" t="n">
         <v>210.7447067828112</v>
@@ -2447,13 +2447,13 @@
         <v>1</v>
       </c>
       <c r="D63" t="n">
-        <v>9902.391928068741</v>
+        <v>9902.242212183104</v>
       </c>
       <c r="E63" t="n">
         <v>4506</v>
       </c>
       <c r="F63" t="n">
-        <v>962407.793744201</v>
+        <v>962407.6440283153</v>
       </c>
       <c r="G63" t="n">
         <v>211.3860190448585</v>
@@ -2479,25 +2479,25 @@
         <v>-1</v>
       </c>
       <c r="D64" t="n">
-        <v>953102.2634713491</v>
+        <v>953102.1822444884</v>
       </c>
       <c r="E64" t="n">
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>953102.2634713491</v>
+        <v>953102.1822444884</v>
       </c>
       <c r="G64" t="n">
-        <v>209.4620779443433</v>
+        <v>209.4620931529857</v>
       </c>
       <c r="H64" t="n">
-        <v>636.2516739303265</v>
+        <v>636.2517150484123</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>-9946.983513941523</v>
+        <v>-9946.915024916641</v>
       </c>
     </row>
     <row r="65">
@@ -2511,16 +2511,16 @@
         <v>0</v>
       </c>
       <c r="D65" t="n">
-        <v>953102.2634713491</v>
+        <v>953102.1822444884</v>
       </c>
       <c r="E65" t="n">
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>953102.2634713491</v>
+        <v>953102.1822444884</v>
       </c>
       <c r="G65" t="n">
-        <v>212.0766584125718</v>
+        <v>212.076642992371</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -2543,16 +2543,16 @@
         <v>0</v>
       </c>
       <c r="D66" t="n">
-        <v>953102.2634713491</v>
+        <v>953102.1822444884</v>
       </c>
       <c r="E66" t="n">
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>953102.2634713491</v>
+        <v>953102.1822444884</v>
       </c>
       <c r="G66" t="n">
-        <v>207.8834537955007</v>
+        <v>207.8834690181658</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -2575,13 +2575,13 @@
         <v>-1</v>
       </c>
       <c r="D67" t="n">
-        <v>953102.2634713491</v>
+        <v>953102.1822444884</v>
       </c>
       <c r="E67" t="n">
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>953102.2634713491</v>
+        <v>953102.1822444884</v>
       </c>
       <c r="G67" t="n">
         <v>211.8793253059276</v>
@@ -2607,13 +2607,13 @@
         <v>-1</v>
       </c>
       <c r="D68" t="n">
-        <v>953102.2634713491</v>
+        <v>953102.1822444884</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>953102.2634713491</v>
+        <v>953102.1822444884</v>
       </c>
       <c r="G68" t="n">
         <v>218.0951242517536</v>
@@ -2639,13 +2639,13 @@
         <v>1</v>
       </c>
       <c r="D69" t="n">
-        <v>9731.46929776009</v>
+        <v>9731.388070899335</v>
       </c>
       <c r="E69" t="n">
         <v>4307</v>
       </c>
       <c r="F69" t="n">
-        <v>952466.672349518</v>
+        <v>952466.5911226573</v>
       </c>
       <c r="G69" t="n">
         <v>218.884421419029</v>
@@ -2671,13 +2671,13 @@
         <v>1</v>
       </c>
       <c r="D70" t="n">
-        <v>187.3116820020117</v>
+        <v>187.2304551412565</v>
       </c>
       <c r="E70" t="n">
         <v>4351</v>
       </c>
       <c r="F70" t="n">
-        <v>939460.2782693995</v>
+        <v>939460.1970425388</v>
       </c>
       <c r="G70" t="n">
         <v>215.875193423902</v>
@@ -2703,13 +2703,13 @@
         <v>0</v>
       </c>
       <c r="D71" t="n">
-        <v>187.3116820020117</v>
+        <v>187.2304551412565</v>
       </c>
       <c r="E71" t="n">
         <v>4351</v>
       </c>
       <c r="F71" t="n">
-        <v>939460.2963516572</v>
+        <v>939460.2151247965</v>
       </c>
       <c r="G71" t="n">
         <v>215.8751975797875</v>
@@ -2735,16 +2735,16 @@
         <v>0</v>
       </c>
       <c r="D72" t="n">
-        <v>187.3116820020117</v>
+        <v>187.2304551412565</v>
       </c>
       <c r="E72" t="n">
         <v>4351</v>
       </c>
       <c r="F72" t="n">
-        <v>938601.661791824</v>
+        <v>938601.6466837361</v>
       </c>
       <c r="G72" t="n">
-        <v>215.6778556906049</v>
+        <v>215.6778708868294</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -2767,13 +2767,13 @@
         <v>-1</v>
       </c>
       <c r="D73" t="n">
-        <v>943546.0680559503</v>
+        <v>943545.9868290896</v>
       </c>
       <c r="E73" t="n">
         <v>0</v>
       </c>
       <c r="F73" t="n">
-        <v>943546.0680559503</v>
+        <v>943545.9868290896</v>
       </c>
       <c r="G73" t="n">
         <v>216.9604926306619</v>
@@ -2799,13 +2799,13 @@
         <v>0</v>
       </c>
       <c r="D74" t="n">
-        <v>943546.0680559503</v>
+        <v>943545.9868290896</v>
       </c>
       <c r="E74" t="n">
         <v>0</v>
       </c>
       <c r="F74" t="n">
-        <v>943546.0680559503</v>
+        <v>943545.9868290896</v>
       </c>
       <c r="G74" t="n">
         <v>212.2246555769706</v>
@@ -2831,16 +2831,16 @@
         <v>0</v>
       </c>
       <c r="D75" t="n">
-        <v>943546.0680559503</v>
+        <v>943545.9868290896</v>
       </c>
       <c r="E75" t="n">
         <v>0</v>
       </c>
       <c r="F75" t="n">
-        <v>943546.0680559503</v>
+        <v>943545.9868290896</v>
       </c>
       <c r="G75" t="n">
-        <v>210.5966964108122</v>
+        <v>210.5967115455173</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -2863,16 +2863,16 @@
         <v>0</v>
       </c>
       <c r="D76" t="n">
-        <v>943546.0680559503</v>
+        <v>943545.9868290896</v>
       </c>
       <c r="E76" t="n">
         <v>0</v>
       </c>
       <c r="F76" t="n">
-        <v>943546.0680559503</v>
+        <v>943545.9868290896</v>
       </c>
       <c r="G76" t="n">
-        <v>212.4713306182599</v>
+        <v>212.471315248848</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -2895,22 +2895,22 @@
         <v>1</v>
       </c>
       <c r="D77" t="n">
-        <v>9576.026144541447</v>
+        <v>9576.012472654911</v>
       </c>
       <c r="E77" t="n">
         <v>4435</v>
       </c>
       <c r="F77" t="n">
-        <v>942916.1140032351</v>
+        <v>942916.0328168831</v>
       </c>
       <c r="G77" t="n">
-        <v>210.4487233052297</v>
+        <v>210.4487080821258</v>
       </c>
       <c r="H77" t="n">
-        <v>629.9540527152162</v>
+        <v>629.954012206537</v>
       </c>
       <c r="I77" t="n">
-        <v>933970.0419114089</v>
+        <v>933969.9743564347</v>
       </c>
       <c r="J77" t="n">
         <v>0</v>
@@ -2924,28 +2924,28 @@
         <v>44217</v>
       </c>
       <c r="C78" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D78" t="n">
-        <v>9576.026144541447</v>
+        <v>939443.5846448671</v>
       </c>
       <c r="E78" t="n">
-        <v>4435</v>
+        <v>0</v>
       </c>
       <c r="F78" t="n">
-        <v>940071.914237491</v>
+        <v>939443.5846448671</v>
       </c>
       <c r="G78" t="n">
-        <v>209.8074155790191</v>
+        <v>209.8074001497205</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>628.2474917984064</v>
       </c>
       <c r="I78" t="n">
-        <v>933970.0419114089</v>
+        <v>0</v>
       </c>
       <c r="J78" t="n">
-        <v>0</v>
+        <v>-4102.402184222476</v>
       </c>
     </row>
     <row r="79">
@@ -2959,25 +2959,25 @@
         <v>-1</v>
       </c>
       <c r="D79" t="n">
-        <v>913861.04949821</v>
+        <v>939443.5846448671</v>
       </c>
       <c r="E79" t="n">
         <v>0</v>
       </c>
       <c r="F79" t="n">
-        <v>913861.04949821</v>
+        <v>939443.5846448671</v>
       </c>
       <c r="G79" t="n">
         <v>204.0356058852151</v>
       </c>
       <c r="H79" t="n">
-        <v>612.8887472605575</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
       <c r="J79" t="n">
-        <v>-29685.01855774038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2991,13 +2991,13 @@
         <v>0</v>
       </c>
       <c r="D80" t="n">
-        <v>913861.04949821</v>
+        <v>939443.5846448671</v>
       </c>
       <c r="E80" t="n">
         <v>0</v>
       </c>
       <c r="F80" t="n">
-        <v>913861.04949821</v>
+        <v>939443.5846448671</v>
       </c>
       <c r="G80" t="n">
         <v>203.1476235829779</v>
@@ -3023,22 +3023,22 @@
         <v>1</v>
       </c>
       <c r="D81" t="n">
-        <v>9333.918368804692</v>
+        <v>9671.938279180094</v>
       </c>
       <c r="E81" t="n">
-        <v>4371</v>
+        <v>4493</v>
       </c>
       <c r="F81" t="n">
-        <v>913248.750598872</v>
+        <v>938816.1481189632</v>
       </c>
       <c r="G81" t="n">
         <v>206.7981771288188</v>
       </c>
       <c r="H81" t="n">
-        <v>612.2988993380404</v>
+        <v>627.43652590387</v>
       </c>
       <c r="I81" t="n">
-        <v>904527.1311294052</v>
+        <v>929771.646365687</v>
       </c>
       <c r="J81" t="n">
         <v>0</v>
@@ -3055,22 +3055,22 @@
         <v>0</v>
       </c>
       <c r="D82" t="n">
-        <v>9333.918368804692</v>
+        <v>9671.938279180094</v>
       </c>
       <c r="E82" t="n">
-        <v>4371</v>
+        <v>4493</v>
       </c>
       <c r="F82" t="n">
-        <v>899448.5579432296</v>
+        <v>924630.705874199</v>
       </c>
       <c r="G82" t="n">
-        <v>203.6409607811541</v>
+        <v>203.6409453805963</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
       </c>
       <c r="I82" t="n">
-        <v>904527.1311294052</v>
+        <v>929771.646365687</v>
       </c>
       <c r="J82" t="n">
         <v>0</v>
@@ -3087,22 +3087,22 @@
         <v>0</v>
       </c>
       <c r="D83" t="n">
-        <v>9333.918368804692</v>
+        <v>9671.938279180094</v>
       </c>
       <c r="E83" t="n">
-        <v>4371</v>
+        <v>4493</v>
       </c>
       <c r="F83" t="n">
-        <v>885540.5282082106</v>
+        <v>910334.4874560421</v>
       </c>
       <c r="G83" t="n">
-        <v>200.4590734018316</v>
+        <v>200.4590583522951</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
       </c>
       <c r="I83" t="n">
-        <v>904527.1311294052</v>
+        <v>929771.646365687</v>
       </c>
       <c r="J83" t="n">
         <v>0</v>
@@ -3119,22 +3119,22 @@
         <v>1</v>
       </c>
       <c r="D84" t="n">
-        <v>61.64191804338169</v>
+        <v>198.9590794891897</v>
       </c>
       <c r="E84" t="n">
-        <v>4417</v>
+        <v>4540</v>
       </c>
       <c r="F84" t="n">
-        <v>886034.1004649308</v>
+        <v>910843.0527636342</v>
       </c>
       <c r="G84" t="n">
         <v>200.5823994898998</v>
       </c>
       <c r="H84" t="n">
-        <v>45.48607422592124</v>
+        <v>45.60642366561517</v>
       </c>
       <c r="I84" t="n">
-        <v>913799.4075801666</v>
+        <v>939244.6255653779</v>
       </c>
       <c r="J84" t="n">
         <v>0</v>
@@ -3151,13 +3151,13 @@
         <v>1</v>
       </c>
       <c r="D85" t="n">
-        <v>61.64191804338169</v>
+        <v>198.9590794891897</v>
       </c>
       <c r="E85" t="n">
-        <v>4417</v>
+        <v>4540</v>
       </c>
       <c r="F85" t="n">
-        <v>893878.4444942772</v>
+        <v>918905.8378877532</v>
       </c>
       <c r="G85" t="n">
         <v>202.3583433498379</v>
@@ -3166,7 +3166,7 @@
         <v>0</v>
       </c>
       <c r="I85" t="n">
-        <v>913799.4075801666</v>
+        <v>939244.6255653779</v>
       </c>
       <c r="J85" t="n">
         <v>0</v>
@@ -3183,25 +3183,25 @@
         <v>-1</v>
       </c>
       <c r="D86" t="n">
-        <v>909169.1226871171</v>
+        <v>934624.2628018333</v>
       </c>
       <c r="E86" t="n">
         <v>0</v>
       </c>
       <c r="F86" t="n">
-        <v>909169.1226871171</v>
+        <v>934624.2628018333</v>
       </c>
       <c r="G86" t="n">
         <v>205.9595346904936</v>
       </c>
       <c r="H86" t="n">
-        <v>615.7839588367463</v>
+        <v>630.9837724969046</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
       <c r="J86" t="n">
-        <v>-4691.926811092882</v>
+        <v>-4819.321843033773</v>
       </c>
     </row>
     <row r="87">
@@ -3215,22 +3215,22 @@
         <v>1</v>
       </c>
       <c r="D87" t="n">
-        <v>9342.782432147606</v>
+        <v>9505.231392230982</v>
       </c>
       <c r="E87" t="n">
-        <v>4340</v>
+        <v>4462</v>
       </c>
       <c r="F87" t="n">
-        <v>908559.6425710338</v>
+        <v>933999.6161709661</v>
       </c>
       <c r="G87" t="n">
         <v>207.1928249167941</v>
       </c>
       <c r="H87" t="n">
-        <v>609.4801160833317</v>
+        <v>624.6466308672411</v>
       </c>
       <c r="I87" t="n">
-        <v>899826.3402549694</v>
+        <v>925119.0314096024</v>
       </c>
       <c r="J87" t="n">
         <v>0</v>
@@ -3247,13 +3247,13 @@
         <v>0</v>
       </c>
       <c r="D88" t="n">
-        <v>9342.782432147606</v>
+        <v>9505.231392230982</v>
       </c>
       <c r="E88" t="n">
-        <v>4340</v>
+        <v>4462</v>
       </c>
       <c r="F88" t="n">
-        <v>901708.4420839316</v>
+        <v>926955.8243337655</v>
       </c>
       <c r="G88" t="n">
         <v>205.6142072930378</v>
@@ -3262,7 +3262,7 @@
         <v>0</v>
       </c>
       <c r="I88" t="n">
-        <v>899826.3402549694</v>
+        <v>925119.0314096024</v>
       </c>
       <c r="J88" t="n">
         <v>0</v>
@@ -3279,22 +3279,22 @@
         <v>1</v>
       </c>
       <c r="D89" t="n">
-        <v>139.6123472729563</v>
+        <v>93.80562466275413</v>
       </c>
       <c r="E89" t="n">
-        <v>4384</v>
+        <v>4507</v>
       </c>
       <c r="F89" t="n">
-        <v>912582.075326087</v>
+        <v>938136.3419790725</v>
       </c>
       <c r="G89" t="n">
-        <v>208.1301238546565</v>
+        <v>208.1301389736875</v>
       </c>
       <c r="H89" t="n">
-        <v>45.44463526976293</v>
+        <v>45.56951375228957</v>
       </c>
       <c r="I89" t="n">
-        <v>909029.510339844</v>
+        <v>934530.4571771706</v>
       </c>
       <c r="J89" t="n">
         <v>0</v>
@@ -3311,13 +3311,13 @@
         <v>1</v>
       </c>
       <c r="D90" t="n">
-        <v>139.6123472729563</v>
+        <v>93.80562466275413</v>
       </c>
       <c r="E90" t="n">
-        <v>4384</v>
+        <v>4507</v>
       </c>
       <c r="F90" t="n">
-        <v>927072.2609366879</v>
+        <v>953033.0043455783</v>
       </c>
       <c r="G90" t="n">
         <v>211.435366922768</v>
@@ -3326,7 +3326,7 @@
         <v>0</v>
       </c>
       <c r="I90" t="n">
-        <v>909029.510339844</v>
+        <v>934530.4571771706</v>
       </c>
       <c r="J90" t="n">
         <v>0</v>
@@ -3343,22 +3343,22 @@
         <v>1</v>
       </c>
       <c r="D91" t="n">
-        <v>139.6123472729563</v>
+        <v>93.80562466275413</v>
       </c>
       <c r="E91" t="n">
-        <v>4384</v>
+        <v>4507</v>
       </c>
       <c r="F91" t="n">
-        <v>920800.3121489664</v>
+        <v>946585.1553693959</v>
       </c>
       <c r="G91" t="n">
-        <v>210.0047216700943</v>
+        <v>210.0047370190222</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
       </c>
       <c r="I91" t="n">
-        <v>909029.510339844</v>
+        <v>934530.4571771706</v>
       </c>
       <c r="J91" t="n">
         <v>0</v>
@@ -3375,25 +3375,25 @@
         <v>-1</v>
       </c>
       <c r="D92" t="n">
-        <v>908074.1892656466</v>
+        <v>933503.8051088535</v>
       </c>
       <c r="E92" t="n">
         <v>0</v>
       </c>
       <c r="F92" t="n">
-        <v>908074.1892656466</v>
+        <v>933503.8051088535</v>
       </c>
       <c r="G92" t="n">
-        <v>207.2421662208944</v>
+        <v>207.2421508117186</v>
       </c>
       <c r="H92" t="n">
-        <v>615.0797940274407</v>
+        <v>630.3742242250495</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>-1094.933421470341</v>
+        <v>-1120.457692979835</v>
       </c>
     </row>
     <row r="93">
@@ -3407,22 +3407,22 @@
         <v>1</v>
       </c>
       <c r="D93" t="n">
-        <v>9266.653283377082</v>
+        <v>9548.038951544955</v>
       </c>
       <c r="E93" t="n">
-        <v>4360</v>
+        <v>4482</v>
       </c>
       <c r="F93" t="n">
-        <v>907465.3200655773</v>
+        <v>932879.8560186132</v>
       </c>
       <c r="G93" t="n">
-        <v>206.0088685280276</v>
+        <v>206.0088837722151</v>
       </c>
       <c r="H93" t="n">
-        <v>608.8692000693202</v>
+        <v>623.949090240241</v>
       </c>
       <c r="I93" t="n">
-        <v>898807.5359822696</v>
+        <v>923955.7661573086</v>
       </c>
       <c r="J93" t="n">
         <v>0</v>
@@ -3439,22 +3439,22 @@
         <v>1</v>
       </c>
       <c r="D94" t="n">
-        <v>178.5929638806948</v>
+        <v>254.3397611509228</v>
       </c>
       <c r="E94" t="n">
-        <v>4404</v>
+        <v>4527</v>
       </c>
       <c r="F94" t="n">
-        <v>905269.126077242</v>
+        <v>930623.2869464793</v>
       </c>
       <c r="G94" t="n">
         <v>205.5155615607087</v>
       </c>
       <c r="H94" t="n">
-        <v>45.37561082520271</v>
+        <v>45.49892016213914</v>
       </c>
       <c r="I94" t="n">
-        <v>907895.596301766</v>
+        <v>933249.4653477026</v>
       </c>
       <c r="J94" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="D95" t="n">
-        <v>178.5929638806948</v>
+        <v>254.3397611509228</v>
       </c>
       <c r="E95" t="n">
-        <v>4404</v>
+        <v>4527</v>
       </c>
       <c r="F95" t="n">
-        <v>910700.5050715947</v>
+        <v>936206.3597683311</v>
       </c>
       <c r="G95" t="n">
         <v>206.7488447111067</v>
@@ -3486,7 +3486,7 @@
         <v>0</v>
       </c>
       <c r="I95" t="n">
-        <v>907895.596301766</v>
+        <v>933249.4653477026</v>
       </c>
       <c r="J95" t="n">
         <v>0</v>
@@ -3503,25 +3503,25 @@
         <v>-1</v>
       </c>
       <c r="D96" t="n">
-        <v>906610.1833566324</v>
+        <v>932003.752467324</v>
       </c>
       <c r="E96" t="n">
         <v>0</v>
       </c>
       <c r="F96" t="n">
-        <v>906610.1833566324</v>
+        <v>932003.752467324</v>
       </c>
       <c r="G96" t="n">
         <v>205.959529485346</v>
       </c>
       <c r="H96" t="n">
-        <v>614.1774607120782</v>
+        <v>629.3772739880967</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
       <c r="J96" t="n">
-        <v>-1464.005909014377</v>
+        <v>-1500.052641529473</v>
       </c>
     </row>
     <row r="97">
@@ -3535,13 +3535,13 @@
         <v>0</v>
       </c>
       <c r="D97" t="n">
-        <v>906610.1833566324</v>
+        <v>932003.752467324</v>
       </c>
       <c r="E97" t="n">
         <v>0</v>
       </c>
       <c r="F97" t="n">
-        <v>906610.1833566324</v>
+        <v>932003.752467324</v>
       </c>
       <c r="G97" t="n">
         <v>204.035613636554</v>
@@ -3567,22 +3567,22 @@
         <v>1</v>
       </c>
       <c r="D98" t="n">
-        <v>9338.020814954065</v>
+        <v>9538.411856087772</v>
       </c>
       <c r="E98" t="n">
-        <v>4416</v>
+        <v>4540</v>
       </c>
       <c r="F98" t="n">
-        <v>906002.2348282244</v>
+        <v>931380.6970961799</v>
       </c>
       <c r="G98" t="n">
         <v>203.0489615066282</v>
       </c>
       <c r="H98" t="n">
-        <v>607.9485284079623</v>
+        <v>623.0553711440554</v>
       </c>
       <c r="I98" t="n">
-        <v>897272.1625416783</v>
+        <v>922465.3406112363</v>
       </c>
       <c r="J98" t="n">
         <v>0</v>
@@ -3599,22 +3599,22 @@
         <v>1</v>
       </c>
       <c r="D99" t="n">
-        <v>137.6144475861482</v>
+        <v>134.4404946745323</v>
       </c>
       <c r="E99" t="n">
-        <v>4461</v>
+        <v>4586</v>
       </c>
       <c r="F99" t="n">
-        <v>907699.6517769281</v>
+        <v>933126.8616385343</v>
       </c>
       <c r="G99" t="n">
-        <v>203.4436308740959</v>
+        <v>203.4436156004928</v>
       </c>
       <c r="H99" t="n">
-        <v>45.4429780336006</v>
+        <v>45.5650437905736</v>
       </c>
       <c r="I99" t="n">
-        <v>906472.5689090462</v>
+        <v>931869.3119726495</v>
       </c>
       <c r="J99" t="n">
         <v>0</v>
@@ -3631,25 +3631,25 @@
         <v>-1</v>
       </c>
       <c r="D100" t="n">
-        <v>905105.6583022948</v>
+        <v>930462.2825846463</v>
       </c>
       <c r="E100" t="n">
         <v>0</v>
       </c>
       <c r="F100" t="n">
-        <v>905105.6583022948</v>
+        <v>930462.2825846463</v>
       </c>
       <c r="G100" t="n">
-        <v>202.9996284824714</v>
+        <v>202.9996436784818</v>
       </c>
       <c r="H100" t="n">
-        <v>613.298805596183</v>
+        <v>628.5238195457106</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>-1504.525054337573</v>
+        <v>-1541.469882677775</v>
       </c>
     </row>
     <row r="101">
@@ -3663,13 +3663,13 @@
         <v>-1</v>
       </c>
       <c r="D101" t="n">
-        <v>905105.6583022948</v>
+        <v>930462.2825846463</v>
       </c>
       <c r="E101" t="n">
         <v>0</v>
       </c>
       <c r="F101" t="n">
-        <v>905105.6583022948</v>
+        <v>930462.2825846463</v>
       </c>
       <c r="G101" t="n">
         <v>203.7396174078436</v>
@@ -3695,22 +3695,22 @@
         <v>1</v>
       </c>
       <c r="D102" t="n">
-        <v>9257.599589409245</v>
+        <v>9508.808201286454</v>
       </c>
       <c r="E102" t="n">
-        <v>4246</v>
+        <v>4365</v>
       </c>
       <c r="F102" t="n">
-        <v>904498.5637238141</v>
+        <v>929840.1337892935</v>
       </c>
       <c r="G102" t="n">
         <v>210.8433735596809</v>
       </c>
       <c r="H102" t="n">
-        <v>607.094578480643</v>
+        <v>622.1487953528042</v>
       </c>
       <c r="I102" t="n">
-        <v>895848.0587128856</v>
+        <v>920953.4743833598</v>
       </c>
       <c r="J102" t="n">
         <v>0</v>
@@ -3727,22 +3727,22 @@
         <v>1</v>
       </c>
       <c r="D103" t="n">
-        <v>202.1184735651975</v>
+        <v>248.4286509914059</v>
       </c>
       <c r="E103" t="n">
-        <v>4290</v>
+        <v>4410</v>
       </c>
       <c r="F103" t="n">
-        <v>878689.3099534719</v>
+        <v>903308.6884240423</v>
       </c>
       <c r="G103" t="n">
         <v>204.7755691095354</v>
       </c>
       <c r="H103" t="n">
-        <v>45.35607502449174</v>
+        <v>45.47894036595746</v>
       </c>
       <c r="I103" t="n">
-        <v>904903.5398287297</v>
+        <v>930213.8539336548</v>
       </c>
       <c r="J103" t="n">
         <v>0</v>
@@ -3759,25 +3759,25 @@
         <v>-1</v>
       </c>
       <c r="D104" t="n">
-        <v>859902.7994028437</v>
+        <v>883998.7046561665</v>
       </c>
       <c r="E104" t="n">
         <v>0</v>
       </c>
       <c r="F104" t="n">
-        <v>859902.7994028437</v>
+        <v>883998.7046561665</v>
       </c>
       <c r="G104" t="n">
-        <v>200.5330543149383</v>
+        <v>200.5330695027391</v>
       </c>
       <c r="H104" t="n">
-        <v>586.1220818066512</v>
+        <v>600.5605019042476</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
       <c r="J104" t="n">
-        <v>-45202.85889945121</v>
+        <v>-46463.57792847976</v>
       </c>
     </row>
     <row r="105">
@@ -3791,22 +3791,22 @@
         <v>1</v>
       </c>
       <c r="D105" t="n">
-        <v>8707.422234004598</v>
+        <v>8945.650143842271</v>
       </c>
       <c r="E105" t="n">
-        <v>4174</v>
+        <v>4291</v>
       </c>
       <c r="F105" t="n">
-        <v>859322.4803679633</v>
+        <v>883404.0795984936</v>
       </c>
       <c r="G105" t="n">
-        <v>203.7889454082316</v>
+        <v>203.7889604881499</v>
       </c>
       <c r="H105" t="n">
-        <v>580.3190348803753</v>
+        <v>594.6250576727909</v>
       </c>
       <c r="I105" t="n">
-        <v>851195.3771688391</v>
+        <v>875053.0545123243</v>
       </c>
       <c r="J105" t="n">
         <v>0</v>
@@ -3823,25 +3823,25 @@
         <v>-1</v>
       </c>
       <c r="D106" t="n">
-        <v>870472.0225218056</v>
+        <v>894868.0468819722</v>
       </c>
       <c r="E106" t="n">
         <v>0</v>
       </c>
       <c r="F106" t="n">
-        <v>870472.0225218056</v>
+        <v>894868.0468819722</v>
       </c>
       <c r="G106" t="n">
         <v>206.6008532498035</v>
       </c>
       <c r="H106" t="n">
-        <v>587.3611768788079</v>
+        <v>601.8645567769441</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
       <c r="J106" t="n">
-        <v>10569.22311896191</v>
+        <v>10869.34222580562</v>
       </c>
     </row>
     <row r="107">
@@ -3855,13 +3855,13 @@
         <v>-1</v>
       </c>
       <c r="D107" t="n">
-        <v>870472.0225218056</v>
+        <v>894868.0468819722</v>
       </c>
       <c r="E107" t="n">
         <v>0</v>
       </c>
       <c r="F107" t="n">
-        <v>870472.0225218056</v>
+        <v>894868.0468819722</v>
       </c>
       <c r="G107" t="n">
         <v>205.8608883593393</v>
@@ -3887,22 +3887,22 @@
         <v>1</v>
       </c>
       <c r="D108" t="n">
-        <v>8953.81324483237</v>
+        <v>9193.256189912776</v>
       </c>
       <c r="E108" t="n">
-        <v>4208</v>
+        <v>4326</v>
       </c>
       <c r="F108" t="n">
-        <v>869885.5135016515</v>
+        <v>894267.0526041237</v>
       </c>
       <c r="G108" t="n">
         <v>204.5940352321338</v>
       </c>
       <c r="H108" t="n">
-        <v>586.5090201540916</v>
+        <v>600.9942778485266</v>
       </c>
       <c r="I108" t="n">
-        <v>861518.2092769733</v>
+        <v>885674.7906920594</v>
       </c>
       <c r="J108" t="n">
         <v>0</v>
@@ -3919,22 +3919,22 @@
         <v>1</v>
       </c>
       <c r="D109" t="n">
-        <v>183.5802158861954</v>
+        <v>219.9933230841312</v>
       </c>
       <c r="E109" t="n">
-        <v>4251</v>
+        <v>4370</v>
       </c>
       <c r="F109" t="n">
-        <v>862745.883672189</v>
+        <v>886928.3598495586</v>
       </c>
       <c r="G109" t="n">
         <v>202.9080930266532</v>
       </c>
       <c r="H109" t="n">
-        <v>45.18502880008766</v>
+        <v>45.30677365590365</v>
       </c>
       <c r="I109" t="n">
-        <v>870288.4423059195</v>
+        <v>894648.053558888</v>
       </c>
       <c r="J109" t="n">
         <v>0</v>
@@ -3951,13 +3951,13 @@
         <v>0</v>
       </c>
       <c r="D110" t="n">
-        <v>183.5802158861954</v>
+        <v>219.9933230841312</v>
       </c>
       <c r="E110" t="n">
-        <v>4251</v>
+        <v>4370</v>
       </c>
       <c r="F110" t="n">
-        <v>887619.4008601813</v>
+        <v>912498.1716847799</v>
       </c>
       <c r="G110" t="n">
         <v>208.7593085495872</v>
@@ -3966,7 +3966,7 @@
         <v>0</v>
       </c>
       <c r="I110" t="n">
-        <v>870288.4423059195</v>
+        <v>894648.053558888</v>
       </c>
       <c r="J110" t="n">
         <v>0</v>
@@ -3983,13 +3983,13 @@
         <v>0</v>
       </c>
       <c r="D111" t="n">
-        <v>183.5802158861954</v>
+        <v>219.9933230841312</v>
       </c>
       <c r="E111" t="n">
-        <v>4251</v>
+        <v>4370</v>
       </c>
       <c r="F111" t="n">
-        <v>916708.7552013571</v>
+        <v>942401.8363450806</v>
       </c>
       <c r="G111" t="n">
         <v>215.6022524077795</v>
@@ -3998,7 +3998,7 @@
         <v>0</v>
       </c>
       <c r="I111" t="n">
-        <v>870288.4423059195</v>
+        <v>894648.053558888</v>
       </c>
       <c r="J111" t="n">
         <v>0</v>
@@ -4015,25 +4015,25 @@
         <v>-1</v>
       </c>
       <c r="D112" t="n">
-        <v>935470.1247924723</v>
+        <v>961690.3588487677</v>
       </c>
       <c r="E112" t="n">
         <v>0</v>
       </c>
       <c r="F112" t="n">
-        <v>935470.1247924723</v>
+        <v>961690.3588487677</v>
       </c>
       <c r="G112" t="n">
         <v>220.1642073403501</v>
       </c>
       <c r="H112" t="n">
-        <v>631.5008272422971</v>
+        <v>647.2205516463981</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
       <c r="J112" t="n">
-        <v>64998.10227066663</v>
+        <v>66822.31196679559</v>
       </c>
     </row>
     <row r="113">
@@ -4047,13 +4047,13 @@
         <v>0</v>
       </c>
       <c r="D113" t="n">
-        <v>935470.1247924723</v>
+        <v>961690.3588487677</v>
       </c>
       <c r="E113" t="n">
         <v>0</v>
       </c>
       <c r="F113" t="n">
-        <v>935470.1247924723</v>
+        <v>961690.3588487677</v>
       </c>
       <c r="G113" t="n">
         <v>222.6931289896268</v>
@@ -4079,22 +4079,22 @@
         <v>1</v>
       </c>
       <c r="D114" t="n">
-        <v>9523.080586799811</v>
+        <v>9765.468115022395</v>
       </c>
       <c r="E114" t="n">
-        <v>4170</v>
+        <v>4287</v>
       </c>
       <c r="F114" t="n">
-        <v>934844.9816518333</v>
+        <v>961049.6383466288</v>
       </c>
       <c r="G114" t="n">
         <v>221.8997364664349</v>
       </c>
       <c r="H114" t="n">
-        <v>625.1431406390202</v>
+        <v>640.7205021389639</v>
       </c>
       <c r="I114" t="n">
-        <v>925947.0442056726</v>
+        <v>951924.8907337453</v>
       </c>
       <c r="J114" t="n">
         <v>0</v>
@@ -4111,22 +4111,22 @@
         <v>1</v>
       </c>
       <c r="D115" t="n">
-        <v>186.9244939101352</v>
+        <v>207.9737818258219</v>
       </c>
       <c r="E115" t="n">
-        <v>4212</v>
+        <v>4330</v>
       </c>
       <c r="F115" t="n">
-        <v>931904.5620840065</v>
+        <v>958027.8623775326</v>
       </c>
       <c r="G115" t="n">
         <v>221.205516996699</v>
       </c>
       <c r="H115" t="n">
-        <v>45.52437902831682</v>
+        <v>45.65710233851484</v>
       </c>
       <c r="I115" t="n">
-        <v>935283.2002985623</v>
+        <v>961482.3850669418</v>
       </c>
       <c r="J115" t="n">
         <v>0</v>
@@ -4143,13 +4143,13 @@
         <v>0</v>
       </c>
       <c r="D116" t="n">
-        <v>186.9244939101352</v>
+        <v>207.9737818258219</v>
       </c>
       <c r="E116" t="n">
-        <v>4212</v>
+        <v>4330</v>
       </c>
       <c r="F116" t="n">
-        <v>942556.4293155574</v>
+        <v>968978.1437433008</v>
       </c>
       <c r="G116" t="n">
         <v>223.7344503375231</v>
@@ -4158,7 +4158,7 @@
         <v>0</v>
       </c>
       <c r="I116" t="n">
-        <v>935283.2002985623</v>
+        <v>961482.3850669418</v>
       </c>
       <c r="J116" t="n">
         <v>0</v>
@@ -4175,25 +4175,25 @@
         <v>-1</v>
       </c>
       <c r="D117" t="n">
-        <v>946304.4097071849</v>
+        <v>972833.0841981315</v>
       </c>
       <c r="E117" t="n">
         <v>0</v>
       </c>
       <c r="F117" t="n">
-        <v>946304.4097071849</v>
+        <v>972833.0841981315</v>
       </c>
       <c r="G117" t="n">
         <v>224.775757005313</v>
       </c>
       <c r="H117" t="n">
-        <v>638.0032931038271</v>
+        <v>653.9174166998033</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
       <c r="J117" t="n">
-        <v>10834.28491471242</v>
+        <v>11142.72534936375</v>
       </c>
     </row>
     <row r="118">
@@ -4207,13 +4207,13 @@
         <v>0</v>
       </c>
       <c r="D118" t="n">
-        <v>946304.4097071849</v>
+        <v>972833.0841981315</v>
       </c>
       <c r="E118" t="n">
         <v>0</v>
       </c>
       <c r="F118" t="n">
-        <v>946304.4097071849</v>
+        <v>972833.0841981315</v>
       </c>
       <c r="G118" t="n">
         <v>221.8997458251325</v>
@@ -4239,16 +4239,16 @@
         <v>-1</v>
       </c>
       <c r="D119" t="n">
-        <v>946304.4097071849</v>
+        <v>972833.0841981315</v>
       </c>
       <c r="E119" t="n">
         <v>0</v>
       </c>
       <c r="F119" t="n">
-        <v>946304.4097071849</v>
+        <v>972833.0841981315</v>
       </c>
       <c r="G119" t="n">
-        <v>223.1889879627441</v>
+        <v>223.1890032385024</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -4271,22 +4271,22 @@
         <v>1</v>
       </c>
       <c r="D120" t="n">
-        <v>9775.478240341319</v>
+        <v>9893.502680358721</v>
       </c>
       <c r="E120" t="n">
-        <v>4184</v>
+        <v>4302</v>
       </c>
       <c r="F120" t="n">
-        <v>945672.9212413842</v>
+        <v>972185.758844433</v>
       </c>
       <c r="G120" t="n">
         <v>223.6848573138248</v>
       </c>
       <c r="H120" t="n">
-        <v>631.4884658006258</v>
+        <v>647.3253536984446</v>
       </c>
       <c r="I120" t="n">
-        <v>936528.9314668436</v>
+        <v>962939.5815177727</v>
       </c>
       <c r="J120" t="n">
         <v>0</v>
@@ -4303,25 +4303,25 @@
         <v>-1</v>
       </c>
       <c r="D121" t="n">
-        <v>950432.4101331062</v>
+        <v>977081.4508406539</v>
       </c>
       <c r="E121" t="n">
         <v>0</v>
       </c>
       <c r="F121" t="n">
-        <v>950432.4101331062</v>
+        <v>977081.4508406539</v>
       </c>
       <c r="G121" t="n">
         <v>224.9741053744974</v>
       </c>
       <c r="H121" t="n">
-        <v>634.7249941321384</v>
+        <v>650.6531607926528</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
       <c r="J121" t="n">
-        <v>4128.000425921287</v>
+        <v>4248.366642522393</v>
       </c>
     </row>
     <row r="122">
@@ -4335,13 +4335,13 @@
         <v>0</v>
       </c>
       <c r="D122" t="n">
-        <v>950432.4101331062</v>
+        <v>977081.4508406539</v>
       </c>
       <c r="E122" t="n">
         <v>0</v>
       </c>
       <c r="F122" t="n">
-        <v>950432.4101331062</v>
+        <v>977081.4508406539</v>
       </c>
       <c r="G122" t="n">
         <v>224.9245187965136</v>
@@ -4367,13 +4367,13 @@
         <v>0</v>
       </c>
       <c r="D123" t="n">
-        <v>950432.4101331062</v>
+        <v>977081.4508406539</v>
       </c>
       <c r="E123" t="n">
         <v>0</v>
       </c>
       <c r="F123" t="n">
-        <v>950432.4101331062</v>
+        <v>977081.4508406539</v>
       </c>
       <c r="G123" t="n">
         <v>227.3046635847221</v>
@@ -4399,13 +4399,13 @@
         <v>0</v>
       </c>
       <c r="D124" t="n">
-        <v>950432.4101331062</v>
+        <v>977081.4508406539</v>
       </c>
       <c r="E124" t="n">
         <v>0</v>
       </c>
       <c r="F124" t="n">
-        <v>950432.4101331062</v>
+        <v>977081.4508406539</v>
       </c>
       <c r="G124" t="n">
         <v>231.6187011060098</v>
@@ -4431,16 +4431,16 @@
         <v>0</v>
       </c>
       <c r="D125" t="n">
-        <v>950432.4101331062</v>
+        <v>977081.4508406539</v>
       </c>
       <c r="E125" t="n">
         <v>0</v>
       </c>
       <c r="F125" t="n">
-        <v>950432.4101331062</v>
+        <v>977081.4508406539</v>
       </c>
       <c r="G125" t="n">
-        <v>235.6847799942684</v>
+        <v>235.684795294906</v>
       </c>
       <c r="H125" t="n">
         <v>0</v>
@@ -4463,22 +4463,22 @@
         <v>1</v>
       </c>
       <c r="D126" t="n">
-        <v>9719.090253207347</v>
+        <v>9877.797184906665</v>
       </c>
       <c r="E126" t="n">
-        <v>3977</v>
+        <v>4089</v>
       </c>
       <c r="F126" t="n">
-        <v>949798.4125397343</v>
+        <v>976431.5685778181</v>
       </c>
       <c r="G126" t="n">
         <v>236.3790098784327</v>
       </c>
       <c r="H126" t="n">
-        <v>633.9975933719162</v>
+        <v>649.8822628357469</v>
       </c>
       <c r="I126" t="n">
-        <v>940713.3198798988</v>
+        <v>967203.6536557472</v>
       </c>
       <c r="J126" t="n">
         <v>0</v>
@@ -4495,25 +4495,25 @@
         <v>-1</v>
       </c>
       <c r="D127" t="n">
-        <v>947784.7958787209</v>
+        <v>974363.1523893651</v>
       </c>
       <c r="E127" t="n">
         <v>0</v>
       </c>
       <c r="F127" t="n">
-        <v>947784.7958787209</v>
+        <v>974363.1523893651</v>
       </c>
       <c r="G127" t="n">
-        <v>236.031902175128</v>
+        <v>236.0318869738225</v>
       </c>
       <c r="H127" t="n">
-        <v>633.1693249702904</v>
+        <v>649.0306315015761</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
       <c r="J127" t="n">
-        <v>-2647.614254385233</v>
+        <v>-2718.29845128872</v>
       </c>
     </row>
     <row r="128">
@@ -4527,16 +4527,16 @@
         <v>0</v>
       </c>
       <c r="D128" t="n">
-        <v>947784.7958787209</v>
+        <v>974363.1523893651</v>
       </c>
       <c r="E128" t="n">
         <v>0</v>
       </c>
       <c r="F128" t="n">
-        <v>947784.7958787209</v>
+        <v>974363.1523893651</v>
       </c>
       <c r="G128" t="n">
-        <v>235.7591776493441</v>
+        <v>235.7591623728832</v>
       </c>
       <c r="H128" t="n">
         <v>0</v>
@@ -4559,13 +4559,13 @@
         <v>-1</v>
       </c>
       <c r="D129" t="n">
-        <v>947784.7958787209</v>
+        <v>974363.1523893651</v>
       </c>
       <c r="E129" t="n">
         <v>0</v>
       </c>
       <c r="F129" t="n">
-        <v>947784.7958787209</v>
+        <v>974363.1523893651</v>
       </c>
       <c r="G129" t="n">
         <v>238.2137052312634</v>
@@ -4591,13 +4591,13 @@
         <v>0</v>
       </c>
       <c r="D130" t="n">
-        <v>947784.7958787209</v>
+        <v>974363.1523893651</v>
       </c>
       <c r="E130" t="n">
         <v>0</v>
       </c>
       <c r="F130" t="n">
-        <v>947784.7958787209</v>
+        <v>974363.1523893651</v>
       </c>
       <c r="G130" t="n">
         <v>237.0980072142834</v>
@@ -4623,22 +4623,22 @@
         <v>1</v>
       </c>
       <c r="D131" t="n">
-        <v>9658.495116322245</v>
+        <v>10068.40354085777</v>
       </c>
       <c r="E131" t="n">
-        <v>3979</v>
+        <v>4090</v>
       </c>
       <c r="F131" t="n">
-        <v>947152.3495660512</v>
+        <v>973715.0144228359</v>
       </c>
       <c r="G131" t="n">
         <v>235.6104183085521</v>
       </c>
       <c r="H131" t="n">
-        <v>632.4463126698373</v>
+        <v>648.137966529187</v>
       </c>
       <c r="I131" t="n">
-        <v>938126.3007623986</v>
+        <v>964294.7488485074</v>
       </c>
       <c r="J131" t="n">
         <v>0</v>
@@ -4655,13 +4655,13 @@
         <v>0</v>
       </c>
       <c r="D132" t="n">
-        <v>9658.495116322245</v>
+        <v>10068.40354085777</v>
       </c>
       <c r="E132" t="n">
-        <v>3979</v>
+        <v>4090</v>
       </c>
       <c r="F132" t="n">
-        <v>948434.7786219651</v>
+        <v>975033.2187049892</v>
       </c>
       <c r="G132" t="n">
         <v>235.9327176440419</v>
@@ -4670,7 +4670,7 @@
         <v>0</v>
       </c>
       <c r="I132" t="n">
-        <v>938126.3007623986</v>
+        <v>964294.7488485074</v>
       </c>
       <c r="J132" t="n">
         <v>0</v>
@@ -4687,13 +4687,13 @@
         <v>0</v>
       </c>
       <c r="D133" t="n">
-        <v>9658.495116322245</v>
+        <v>10068.40354085777</v>
       </c>
       <c r="E133" t="n">
-        <v>3979</v>
+        <v>4090</v>
       </c>
       <c r="F133" t="n">
-        <v>950309.208568903</v>
+        <v>976959.9386052093</v>
       </c>
       <c r="G133" t="n">
         <v>236.4037983042425</v>
@@ -4702,7 +4702,7 @@
         <v>0</v>
       </c>
       <c r="I133" t="n">
-        <v>938126.3007623986</v>
+        <v>964294.7488485074</v>
       </c>
       <c r="J133" t="n">
         <v>0</v>
@@ -4719,25 +4719,25 @@
         <v>-1</v>
       </c>
       <c r="D134" t="n">
-        <v>954210.2190380496</v>
+        <v>980971.6625004587</v>
       </c>
       <c r="E134" t="n">
         <v>0</v>
       </c>
       <c r="F134" t="n">
-        <v>954210.2190380496</v>
+        <v>980971.6625004587</v>
       </c>
       <c r="G134" t="n">
-        <v>237.544304396593</v>
+        <v>237.5442891553027</v>
       </c>
       <c r="H134" t="n">
-        <v>637.0632723164263</v>
+        <v>652.8836855871128</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
       <c r="J134" t="n">
-        <v>6425.423159328639</v>
+        <v>6608.510111093521</v>
       </c>
     </row>
     <row r="135">
@@ -4751,16 +4751,16 @@
         <v>0</v>
       </c>
       <c r="D135" t="n">
-        <v>954210.2190380496</v>
+        <v>980971.6625004587</v>
       </c>
       <c r="E135" t="n">
         <v>0</v>
       </c>
       <c r="F135" t="n">
-        <v>954210.2190380496</v>
+        <v>980971.6625004587</v>
       </c>
       <c r="G135" t="n">
-        <v>235.7839724967669</v>
+        <v>235.7839573177832</v>
       </c>
       <c r="H135" t="n">
         <v>0</v>
@@ -4783,16 +4783,16 @@
         <v>0</v>
       </c>
       <c r="D136" t="n">
-        <v>954210.2190380496</v>
+        <v>980971.6625004587</v>
       </c>
       <c r="E136" t="n">
         <v>0</v>
       </c>
       <c r="F136" t="n">
-        <v>954210.2190380496</v>
+        <v>980971.6625004587</v>
       </c>
       <c r="G136" t="n">
-        <v>237.6930404712093</v>
+        <v>237.6930556776556</v>
       </c>
       <c r="H136" t="n">
         <v>0</v>
@@ -4815,13 +4815,13 @@
         <v>-1</v>
       </c>
       <c r="D137" t="n">
-        <v>954210.2190380496</v>
+        <v>980971.6625004587</v>
       </c>
       <c r="E137" t="n">
         <v>0</v>
       </c>
       <c r="F137" t="n">
-        <v>954210.2190380496</v>
+        <v>980971.6625004587</v>
       </c>
       <c r="G137" t="n">
         <v>238.4120579658522</v>
@@ -4847,22 +4847,22 @@
         <v>1</v>
       </c>
       <c r="D138" t="n">
-        <v>9801.815844972303</v>
+        <v>10039.64556558727</v>
       </c>
       <c r="E138" t="n">
-        <v>3952</v>
+        <v>4063</v>
       </c>
       <c r="F138" t="n">
-        <v>953574.005724122</v>
+        <v>980319.5445610613</v>
       </c>
       <c r="G138" t="n">
-        <v>238.8087524997849</v>
+        <v>238.8087371389304</v>
       </c>
       <c r="H138" t="n">
-        <v>636.2133139274899</v>
+        <v>652.1179393972845</v>
       </c>
       <c r="I138" t="n">
-        <v>944408.4031930773</v>
+        <v>970932.0169348713</v>
       </c>
       <c r="J138" t="n">
         <v>0</v>
@@ -4879,25 +4879,25 @@
         <v>-1</v>
       </c>
       <c r="D139" t="n">
-        <v>942949.5179875642</v>
+        <v>969398.6112961968</v>
       </c>
       <c r="E139" t="n">
         <v>0</v>
       </c>
       <c r="F139" t="n">
-        <v>942949.5179875642</v>
+        <v>969398.6112961968</v>
       </c>
       <c r="G139" t="n">
-        <v>236.2798377768037</v>
+        <v>236.2798224666056</v>
       </c>
       <c r="H139" t="n">
-        <v>630.216751336357</v>
+        <v>645.9529512090912</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>-11260.70105048537</v>
+        <v>-11573.05120426172</v>
       </c>
     </row>
     <row r="140">
@@ -4911,16 +4911,16 @@
         <v>0</v>
       </c>
       <c r="D140" t="n">
-        <v>942949.5179875642</v>
+        <v>969398.6112961968</v>
       </c>
       <c r="E140" t="n">
         <v>0</v>
       </c>
       <c r="F140" t="n">
-        <v>942949.5179875642</v>
+        <v>969398.6112961968</v>
       </c>
       <c r="G140" t="n">
-        <v>238.0401481586572</v>
+        <v>238.0401633148375</v>
       </c>
       <c r="H140" t="n">
         <v>0</v>
@@ -4943,13 +4943,13 @@
         <v>-1</v>
       </c>
       <c r="D141" t="n">
-        <v>942949.5179875642</v>
+        <v>969398.6112961968</v>
       </c>
       <c r="E141" t="n">
         <v>0</v>
       </c>
       <c r="F141" t="n">
-        <v>942949.5179875642</v>
+        <v>969398.6112961968</v>
       </c>
       <c r="G141" t="n">
         <v>239.5029612325899</v>
@@ -4975,13 +4975,13 @@
         <v>-1</v>
       </c>
       <c r="D142" t="n">
-        <v>942949.5179875642</v>
+        <v>969398.6112961968</v>
       </c>
       <c r="E142" t="n">
         <v>0</v>
       </c>
       <c r="F142" t="n">
-        <v>942949.5179875642</v>
+        <v>969398.6112961968</v>
       </c>
       <c r="G142" t="n">
         <v>237.4699038916978</v>
@@ -5007,22 +5007,22 @@
         <v>1</v>
       </c>
       <c r="D143" t="n">
-        <v>9566.409380194094</v>
+        <v>9937.283184032198</v>
       </c>
       <c r="E143" t="n">
-        <v>3901</v>
+        <v>4010</v>
       </c>
       <c r="F143" t="n">
-        <v>942319.9158836622</v>
+        <v>968753.3716431214</v>
       </c>
       <c r="G143" t="n">
         <v>239.1062564735883</v>
       </c>
       <c r="H143" t="n">
-        <v>629.6021039020809</v>
+        <v>645.2396530754536</v>
       </c>
       <c r="I143" t="n">
-        <v>933383.1086073701</v>
+        <v>959461.3281121646</v>
       </c>
       <c r="J143" t="n">
         <v>0</v>
@@ -5039,22 +5039,22 @@
         <v>0</v>
       </c>
       <c r="D144" t="n">
-        <v>9566.409380194094</v>
+        <v>9937.283184032198</v>
       </c>
       <c r="E144" t="n">
-        <v>3901</v>
+        <v>4010</v>
       </c>
       <c r="F144" t="n">
-        <v>935549.6664864758</v>
+        <v>961793.8896831991</v>
       </c>
       <c r="G144" t="n">
-        <v>237.3707400938943</v>
+        <v>237.3707248127598</v>
       </c>
       <c r="H144" t="n">
         <v>0</v>
       </c>
       <c r="I144" t="n">
-        <v>933383.1086073701</v>
+        <v>959461.3281121646</v>
       </c>
       <c r="J144" t="n">
         <v>0</v>
@@ -5071,22 +5071,22 @@
         <v>1</v>
       </c>
       <c r="D145" t="n">
-        <v>274.0886764365499</v>
+        <v>170.4825572842512</v>
       </c>
       <c r="E145" t="n">
-        <v>3940</v>
+        <v>4051</v>
       </c>
       <c r="F145" t="n">
-        <v>934440.2703214169</v>
+        <v>960654.4821320744</v>
       </c>
       <c r="G145" t="n">
-        <v>237.0980156459341</v>
+        <v>237.0980003887411</v>
       </c>
       <c r="H145" t="n">
-        <v>45.49809356611486</v>
+        <v>45.78261080956303</v>
       </c>
       <c r="I145" t="n">
-        <v>942675.4293111276</v>
+        <v>969228.1287389125</v>
       </c>
       <c r="J145" t="n">
         <v>0</v>
@@ -5103,22 +5103,22 @@
         <v>0</v>
       </c>
       <c r="D146" t="n">
-        <v>274.0886764365499</v>
+        <v>170.4825572842512</v>
       </c>
       <c r="E146" t="n">
-        <v>3940</v>
+        <v>4051</v>
       </c>
       <c r="F146" t="n">
-        <v>928579.0833218779</v>
+        <v>954628.2940782682</v>
       </c>
       <c r="G146" t="n">
-        <v>235.6104047323455</v>
+        <v>235.6104200249281</v>
       </c>
       <c r="H146" t="n">
         <v>0</v>
       </c>
       <c r="I146" t="n">
-        <v>942675.4293111276</v>
+        <v>969228.1287389125</v>
       </c>
       <c r="J146" t="n">
         <v>0</v>
@@ -5135,13 +5135,13 @@
         <v>0</v>
       </c>
       <c r="D147" t="n">
-        <v>274.0886764365499</v>
+        <v>170.4825572842512</v>
       </c>
       <c r="E147" t="n">
-        <v>3940</v>
+        <v>4051</v>
       </c>
       <c r="F147" t="n">
-        <v>931314.3098747878</v>
+        <v>957440.5170939647</v>
       </c>
       <c r="G147" t="n">
         <v>236.3046246696323</v>
@@ -5150,7 +5150,7 @@
         <v>0</v>
       </c>
       <c r="I147" t="n">
-        <v>942675.4293111276</v>
+        <v>969228.1287389125</v>
       </c>
       <c r="J147" t="n">
         <v>0</v>
@@ -5167,22 +5167,22 @@
         <v>1</v>
       </c>
       <c r="D148" t="n">
-        <v>25.06115309815646</v>
+        <v>170.4825572842512</v>
       </c>
       <c r="E148" t="n">
-        <v>3941</v>
+        <v>4051</v>
       </c>
       <c r="F148" t="n">
-        <v>929933.6606297066</v>
+        <v>956034.34821989</v>
       </c>
       <c r="G148" t="n">
-        <v>235.9575233383934</v>
+        <v>235.9575081862764</v>
       </c>
       <c r="H148" t="n">
-        <v>13.07</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
-        <v>942924.4568344661</v>
+        <v>969228.1287389125</v>
       </c>
       <c r="J148" t="n">
         <v>0</v>
@@ -5199,22 +5199,22 @@
         <v>1</v>
       </c>
       <c r="D149" t="n">
-        <v>25.06115309815646</v>
+        <v>170.4825572842512</v>
       </c>
       <c r="E149" t="n">
-        <v>3941</v>
+        <v>4051</v>
       </c>
       <c r="F149" t="n">
-        <v>929151.8959514272</v>
+        <v>955230.88688801</v>
       </c>
       <c r="G149" t="n">
-        <v>235.7591562543337</v>
+        <v>235.7591716442176</v>
       </c>
       <c r="H149" t="n">
         <v>0</v>
       </c>
       <c r="I149" t="n">
-        <v>942924.4568344661</v>
+        <v>969228.1287389125</v>
       </c>
       <c r="J149" t="n">
         <v>0</v>
@@ -5231,25 +5231,25 @@
         <v>-1</v>
       </c>
       <c r="D150" t="n">
-        <v>936434.3301668316</v>
+        <v>962718.4152076923</v>
       </c>
       <c r="E150" t="n">
         <v>0</v>
       </c>
       <c r="F150" t="n">
-        <v>936434.3301668316</v>
+        <v>962718.4152076923</v>
       </c>
       <c r="G150" t="n">
-        <v>237.7674305709367</v>
+        <v>237.7674154851854</v>
       </c>
       <c r="H150" t="n">
-        <v>632.174866328037</v>
+        <v>647.8674800782918</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
       <c r="J150" t="n">
-        <v>-6515.187820732594</v>
+        <v>-6680.196088504512</v>
       </c>
     </row>
     <row r="151">
@@ -5263,22 +5263,22 @@
         <v>1</v>
       </c>
       <c r="D151" t="n">
-        <v>9520.261884657906</v>
+        <v>9870.1626535018</v>
       </c>
       <c r="E151" t="n">
-        <v>3824</v>
+        <v>3931</v>
       </c>
       <c r="F151" t="n">
-        <v>935808.6071596666</v>
+        <v>962077.141020672</v>
       </c>
       <c r="G151" t="n">
         <v>242.2302158145943</v>
       </c>
       <c r="H151" t="n">
-        <v>625.7230071650052</v>
+        <v>641.2741870203022</v>
       </c>
       <c r="I151" t="n">
-        <v>926914.0682821737</v>
+        <v>952848.2525541905</v>
       </c>
       <c r="J151" t="n">
         <v>0</v>
@@ -5295,13 +5295,13 @@
         <v>0</v>
       </c>
       <c r="D152" t="n">
-        <v>9520.261884657906</v>
+        <v>9870.1626535018</v>
       </c>
       <c r="E152" t="n">
-        <v>3824</v>
+        <v>3931</v>
       </c>
       <c r="F152" t="n">
-        <v>943014.1162361557</v>
+        <v>969484.268682722</v>
       </c>
       <c r="G152" t="n">
         <v>244.1145016609565</v>
@@ -5310,7 +5310,7 @@
         <v>0</v>
       </c>
       <c r="I152" t="n">
-        <v>926914.0682821737</v>
+        <v>952848.2525541905</v>
       </c>
       <c r="J152" t="n">
         <v>0</v>
@@ -5327,25 +5327,25 @@
         <v>-1</v>
       </c>
       <c r="D153" t="n">
-        <v>947879.6948736836</v>
+        <v>974487.9491937372</v>
       </c>
       <c r="E153" t="n">
         <v>0</v>
       </c>
       <c r="F153" t="n">
-        <v>947879.6948736836</v>
+        <v>974487.9491937372</v>
       </c>
       <c r="G153" t="n">
         <v>245.5525048787185</v>
       </c>
       <c r="H153" t="n">
-        <v>633.3456671937317</v>
+        <v>649.1101380069455</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
       <c r="J153" t="n">
-        <v>11445.36470685201</v>
+        <v>11769.53398604493</v>
       </c>
     </row>
     <row r="154">
@@ -5359,13 +5359,13 @@
         <v>0</v>
       </c>
       <c r="D154" t="n">
-        <v>947879.6948736836</v>
+        <v>974487.9491937372</v>
       </c>
       <c r="E154" t="n">
         <v>0</v>
       </c>
       <c r="F154" t="n">
-        <v>947879.6948736836</v>
+        <v>974487.9491937372</v>
       </c>
       <c r="G154" t="n">
         <v>243.3707060925948</v>
@@ -5391,13 +5391,13 @@
         <v>-1</v>
       </c>
       <c r="D155" t="n">
-        <v>947879.6948736836</v>
+        <v>974487.9491937372</v>
       </c>
       <c r="E155" t="n">
         <v>0</v>
       </c>
       <c r="F155" t="n">
-        <v>947879.6948736836</v>
+        <v>974487.9491937372</v>
       </c>
       <c r="G155" t="n">
         <v>242.0566669160528</v>
@@ -5423,16 +5423,16 @@
         <v>0</v>
       </c>
       <c r="D156" t="n">
-        <v>947879.6948736836</v>
+        <v>974487.9491937372</v>
       </c>
       <c r="E156" t="n">
         <v>0</v>
       </c>
       <c r="F156" t="n">
-        <v>947879.6948736836</v>
+        <v>974487.9491937372</v>
       </c>
       <c r="G156" t="n">
-        <v>240.1723815615368</v>
+        <v>240.1723665491565</v>
       </c>
       <c r="H156" t="n">
         <v>0</v>
@@ -5455,16 +5455,16 @@
         <v>0</v>
       </c>
       <c r="D157" t="n">
-        <v>947879.6948736836</v>
+        <v>974487.9491937372</v>
       </c>
       <c r="E157" t="n">
         <v>0</v>
       </c>
       <c r="F157" t="n">
-        <v>947879.6948736836</v>
+        <v>974487.9491937372</v>
       </c>
       <c r="G157" t="n">
-        <v>244.7591449116026</v>
+        <v>244.7591297266462</v>
       </c>
       <c r="H157" t="n">
         <v>0</v>
@@ -5487,22 +5487,22 @@
         <v>1</v>
       </c>
       <c r="D158" t="n">
-        <v>9651.273785348452</v>
+        <v>9919.208922391803</v>
       </c>
       <c r="E158" t="n">
-        <v>3811</v>
+        <v>3918</v>
       </c>
       <c r="F158" t="n">
-        <v>947247.1873255594</v>
+        <v>973839.6469309321</v>
       </c>
       <c r="G158" t="n">
         <v>246.0235931619551</v>
       </c>
       <c r="H158" t="n">
-        <v>632.5075481241267</v>
+        <v>648.3022628051242</v>
       </c>
       <c r="I158" t="n">
-        <v>938228.4210883352</v>
+        <v>964568.7402713455</v>
       </c>
       <c r="J158" t="n">
         <v>0</v>
@@ -5516,28 +5516,28 @@
         <v>44334</v>
       </c>
       <c r="C159" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D159" t="n">
-        <v>9651.273785348452</v>
+        <v>969599.3105971933</v>
       </c>
       <c r="E159" t="n">
-        <v>3811</v>
+        <v>0</v>
       </c>
       <c r="F159" t="n">
-        <v>943751.1535530938</v>
+        <v>969599.3105971933</v>
       </c>
       <c r="G159" t="n">
         <v>245.1062397711219</v>
       </c>
       <c r="H159" t="n">
-        <v>0</v>
+        <v>646.1457484539533</v>
       </c>
       <c r="I159" t="n">
-        <v>938228.4210883352</v>
+        <v>0</v>
       </c>
       <c r="J159" t="n">
-        <v>0</v>
+        <v>-4888.638596543926</v>
       </c>
     </row>
     <row r="160">
@@ -5551,13 +5551,13 @@
         <v>0</v>
       </c>
       <c r="D160" t="n">
-        <v>9651.273785348452</v>
+        <v>969599.3105971933</v>
       </c>
       <c r="E160" t="n">
-        <v>3811</v>
+        <v>0</v>
       </c>
       <c r="F160" t="n">
-        <v>920696.2692891276</v>
+        <v>969599.3105971933</v>
       </c>
       <c r="G160" t="n">
         <v>239.0566768574598</v>
@@ -5566,7 +5566,7 @@
         <v>0</v>
       </c>
       <c r="I160" t="n">
-        <v>938228.4210883352</v>
+        <v>0</v>
       </c>
       <c r="J160" t="n">
         <v>0</v>
@@ -5583,13 +5583,13 @@
         <v>0</v>
       </c>
       <c r="D161" t="n">
-        <v>9651.273785348452</v>
+        <v>969599.3105971933</v>
       </c>
       <c r="E161" t="n">
-        <v>3811</v>
+        <v>0</v>
       </c>
       <c r="F161" t="n">
-        <v>930428.4460090443</v>
+        <v>969599.3105971933</v>
       </c>
       <c r="G161" t="n">
         <v>241.6103836850422</v>
@@ -5598,7 +5598,7 @@
         <v>0</v>
       </c>
       <c r="I161" t="n">
-        <v>938228.4210883352</v>
+        <v>0</v>
       </c>
       <c r="J161" t="n">
         <v>0</v>
@@ -5615,22 +5615,22 @@
         <v>1</v>
       </c>
       <c r="D162" t="n">
-        <v>89.98335312563104</v>
+        <v>9827.072415964816</v>
       </c>
       <c r="E162" t="n">
-        <v>3850</v>
+        <v>3931</v>
       </c>
       <c r="F162" t="n">
-        <v>939453.5617204094</v>
+        <v>968953.8845099369</v>
       </c>
       <c r="G162" t="n">
         <v>243.9905398356581</v>
       </c>
       <c r="H162" t="n">
-        <v>45.6593786321544</v>
+        <v>645.4260872563833</v>
       </c>
       <c r="I162" t="n">
-        <v>947789.711520558</v>
+        <v>959772.2381812285</v>
       </c>
       <c r="J162" t="n">
         <v>0</v>
@@ -5647,25 +5647,25 @@
         <v>-1</v>
       </c>
       <c r="D163" t="n">
-        <v>941968.0666666722</v>
+        <v>971522.7637031212</v>
       </c>
       <c r="E163" t="n">
         <v>0</v>
       </c>
       <c r="F163" t="n">
-        <v>941968.0666666722</v>
+        <v>971522.7637031212</v>
       </c>
       <c r="G163" t="n">
         <v>244.8087120619246</v>
       </c>
       <c r="H163" t="n">
-        <v>635.4581248630459</v>
+        <v>647.3558282692554</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
       <c r="J163" t="n">
-        <v>-5911.628207011381</v>
+        <v>1923.453105927911</v>
       </c>
     </row>
     <row r="164">
@@ -5679,13 +5679,13 @@
         <v>-1</v>
       </c>
       <c r="D164" t="n">
-        <v>941968.0666666722</v>
+        <v>971522.7637031212</v>
       </c>
       <c r="E164" t="n">
         <v>0</v>
       </c>
       <c r="F164" t="n">
-        <v>941968.0666666722</v>
+        <v>971522.7637031212</v>
       </c>
       <c r="G164" t="n">
         <v>244.2136750594587</v>
@@ -5711,13 +5711,13 @@
         <v>0</v>
       </c>
       <c r="D165" t="n">
-        <v>941968.0666666722</v>
+        <v>971522.7637031212</v>
       </c>
       <c r="E165" t="n">
         <v>0</v>
       </c>
       <c r="F165" t="n">
-        <v>941968.0666666722</v>
+        <v>971522.7637031212</v>
       </c>
       <c r="G165" t="n">
         <v>243.5938489246219</v>
@@ -5743,13 +5743,13 @@
         <v>0</v>
       </c>
       <c r="D166" t="n">
-        <v>941968.0666666722</v>
+        <v>971522.7637031212</v>
       </c>
       <c r="E166" t="n">
         <v>0</v>
       </c>
       <c r="F166" t="n">
-        <v>941968.0666666722</v>
+        <v>971522.7637031212</v>
       </c>
       <c r="G166" t="n">
         <v>245.502928646041</v>
@@ -5775,13 +5775,13 @@
         <v>0</v>
       </c>
       <c r="D167" t="n">
-        <v>941968.0666666722</v>
+        <v>971522.7637031212</v>
       </c>
       <c r="E167" t="n">
         <v>0</v>
       </c>
       <c r="F167" t="n">
-        <v>941968.0666666722</v>
+        <v>971522.7637031212</v>
       </c>
       <c r="G167" t="n">
         <v>245.3541739076433</v>
@@ -5807,13 +5807,13 @@
         <v>0</v>
       </c>
       <c r="D168" t="n">
-        <v>941968.0666666722</v>
+        <v>971522.7637031212</v>
       </c>
       <c r="E168" t="n">
         <v>0</v>
       </c>
       <c r="F168" t="n">
-        <v>941968.0666666722</v>
+        <v>971522.7637031212</v>
       </c>
       <c r="G168" t="n">
         <v>246.4450667202774</v>
@@ -5839,22 +5839,22 @@
         <v>1</v>
       </c>
       <c r="D169" t="n">
-        <v>9701.646589074999</v>
+        <v>10025.41347025809</v>
       </c>
       <c r="E169" t="n">
-        <v>3795</v>
+        <v>3914</v>
       </c>
       <c r="F169" t="n">
-        <v>941339.1341741212</v>
+        <v>970876.3031693018</v>
       </c>
       <c r="G169" t="n">
         <v>245.4907740672058</v>
       </c>
       <c r="H169" t="n">
-        <v>628.9324925510277</v>
+        <v>646.4605338194262</v>
       </c>
       <c r="I169" t="n">
-        <v>932266.4200775973</v>
+        <v>961497.3502328631</v>
       </c>
       <c r="J169" t="n">
         <v>0</v>
@@ -5868,28 +5868,28 @@
         <v>44350</v>
       </c>
       <c r="C170" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D170" t="n">
-        <v>9701.646589074999</v>
+        <v>961756.005322265</v>
       </c>
       <c r="E170" t="n">
-        <v>3795</v>
+        <v>0</v>
       </c>
       <c r="F170" t="n">
-        <v>933118.0000108281</v>
+        <v>961756.005322265</v>
       </c>
       <c r="G170" t="n">
         <v>243.3244673048098</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>641.3731790186154</v>
       </c>
       <c r="I170" t="n">
-        <v>932266.4200775973</v>
+        <v>0</v>
       </c>
       <c r="J170" t="n">
-        <v>0</v>
+        <v>-9766.758380856249</v>
       </c>
     </row>
     <row r="171">
@@ -5900,16 +5900,16 @@
         <v>44351</v>
       </c>
       <c r="C171" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D171" t="n">
-        <v>9701.646589074999</v>
+        <v>961756.005322265</v>
       </c>
       <c r="E171" t="n">
-        <v>3795</v>
+        <v>0</v>
       </c>
       <c r="F171" t="n">
-        <v>940772.1583928227</v>
+        <v>961756.005322265</v>
       </c>
       <c r="G171" t="n">
         <v>245.3413733343209</v>
@@ -5918,7 +5918,7 @@
         <v>0</v>
       </c>
       <c r="I171" t="n">
-        <v>932266.4200775973</v>
+        <v>0</v>
       </c>
       <c r="J171" t="n">
         <v>0</v>
@@ -5935,13 +5935,13 @@
         <v>0</v>
       </c>
       <c r="D172" t="n">
-        <v>9701.646589074999</v>
+        <v>961756.005322265</v>
       </c>
       <c r="E172" t="n">
-        <v>3795</v>
+        <v>0</v>
       </c>
       <c r="F172" t="n">
-        <v>926597.7371780828</v>
+        <v>961756.005322265</v>
       </c>
       <c r="G172" t="n">
         <v>241.6063479812932</v>
@@ -5950,7 +5950,7 @@
         <v>0</v>
       </c>
       <c r="I172" t="n">
-        <v>932266.4200775973</v>
+        <v>0</v>
       </c>
       <c r="J172" t="n">
         <v>0</v>
@@ -5967,13 +5967,13 @@
         <v>0</v>
       </c>
       <c r="D173" t="n">
-        <v>9701.646589074999</v>
+        <v>961756.005322265</v>
       </c>
       <c r="E173" t="n">
-        <v>3795</v>
+        <v>0</v>
       </c>
       <c r="F173" t="n">
-        <v>918471.0484233788</v>
+        <v>961756.005322265</v>
       </c>
       <c r="G173" t="n">
         <v>239.4649280195794</v>
@@ -5982,7 +5982,7 @@
         <v>0</v>
       </c>
       <c r="I173" t="n">
-        <v>932266.4200775973</v>
+        <v>0</v>
       </c>
       <c r="J173" t="n">
         <v>0</v>
@@ -5996,25 +5996,25 @@
         <v>44356</v>
       </c>
       <c r="C174" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D174" t="n">
-        <v>9701.646589074999</v>
+        <v>9729.556425080626</v>
       </c>
       <c r="E174" t="n">
-        <v>3795</v>
+        <v>3980</v>
       </c>
       <c r="F174" t="n">
-        <v>916864.6134609154</v>
+        <v>961115.223921767</v>
       </c>
       <c r="G174" t="n">
         <v>239.0416249991674</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>640.7814004980119</v>
       </c>
       <c r="I174" t="n">
-        <v>932266.4200775973</v>
+        <v>952026.4488971843</v>
       </c>
       <c r="J174" t="n">
         <v>0</v>
@@ -6031,25 +6031,25 @@
         <v>-1</v>
       </c>
       <c r="D175" t="n">
-        <v>915778.1808568112</v>
+        <v>959979.2394647619</v>
       </c>
       <c r="E175" t="n">
         <v>0</v>
       </c>
       <c r="F175" t="n">
-        <v>915778.1808568112</v>
+        <v>959979.2394647619</v>
       </c>
       <c r="G175" t="n">
         <v>238.9171274221018</v>
       </c>
       <c r="H175" t="n">
-        <v>613.9642991401258</v>
+        <v>640.4841002839792</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
       <c r="J175" t="n">
-        <v>-26189.88580986101</v>
+        <v>-1776.765857503051</v>
       </c>
     </row>
     <row r="176">
@@ -6063,13 +6063,13 @@
         <v>0</v>
       </c>
       <c r="D176" t="n">
-        <v>915778.1808568112</v>
+        <v>959979.2394647619</v>
       </c>
       <c r="E176" t="n">
         <v>0</v>
       </c>
       <c r="F176" t="n">
-        <v>915778.1808568112</v>
+        <v>959979.2394647619</v>
       </c>
       <c r="G176" t="n">
         <v>238.9918275782619</v>
@@ -6095,13 +6095,13 @@
         <v>-1</v>
       </c>
       <c r="D177" t="n">
-        <v>915778.1808568112</v>
+        <v>959979.2394647619</v>
       </c>
       <c r="E177" t="n">
         <v>0</v>
       </c>
       <c r="F177" t="n">
-        <v>915778.1808568112</v>
+        <v>959979.2394647619</v>
       </c>
       <c r="G177" t="n">
         <v>239.2408259961045</v>
@@ -6127,13 +6127,13 @@
         <v>0</v>
       </c>
       <c r="D178" t="n">
-        <v>915778.1808568112</v>
+        <v>959979.2394647619</v>
       </c>
       <c r="E178" t="n">
         <v>0</v>
       </c>
       <c r="F178" t="n">
-        <v>915778.1808568112</v>
+        <v>959979.2394647619</v>
       </c>
       <c r="G178" t="n">
         <v>240.4111339750949</v>
@@ -6159,22 +6159,22 @@
         <v>1</v>
       </c>
       <c r="D179" t="n">
-        <v>9382.572238335275</v>
+        <v>9826.643860438051</v>
       </c>
       <c r="E179" t="n">
-        <v>3749</v>
+        <v>3930</v>
       </c>
       <c r="F179" t="n">
-        <v>915164.7615432283</v>
+        <v>959339.5817020569</v>
       </c>
       <c r="G179" t="n">
         <v>241.6063455067733</v>
       </c>
       <c r="H179" t="n">
-        <v>613.4193135829358</v>
+        <v>639.6577627049713</v>
       </c>
       <c r="I179" t="n">
-        <v>906395.608618476</v>
+        <v>950152.5956043239</v>
       </c>
       <c r="J179" t="n">
         <v>0</v>
@@ -6191,25 +6191,25 @@
         <v>-1</v>
       </c>
       <c r="D180" t="n">
-        <v>908487.1914778351</v>
+        <v>952342.99877141</v>
       </c>
       <c r="E180" t="n">
         <v>0</v>
       </c>
       <c r="F180" t="n">
-        <v>908487.1914778351</v>
+        <v>952342.99877141</v>
       </c>
       <c r="G180" t="n">
         <v>239.9878361905112</v>
       </c>
       <c r="H180" t="n">
-        <v>609.778638726936</v>
+        <v>635.8413177372256</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
       <c r="J180" t="n">
-        <v>-7290.98937897617</v>
+        <v>-7636.240693351952</v>
       </c>
     </row>
     <row r="181">
@@ -6223,13 +6223,13 @@
         <v>-1</v>
       </c>
       <c r="D181" t="n">
-        <v>908487.1914778351</v>
+        <v>952342.99877141</v>
       </c>
       <c r="E181" t="n">
         <v>0</v>
       </c>
       <c r="F181" t="n">
-        <v>908487.1914778351</v>
+        <v>952342.99877141</v>
       </c>
       <c r="G181" t="n">
         <v>240.1870320379395</v>
@@ -6255,22 +6255,22 @@
         <v>1</v>
       </c>
       <c r="D182" t="n">
-        <v>9352.89560212797</v>
+        <v>9713.298602938674</v>
       </c>
       <c r="E182" t="n">
-        <v>3762</v>
+        <v>3944</v>
       </c>
       <c r="F182" t="n">
-        <v>907878.1263393927</v>
+        <v>951707.8520393481</v>
       </c>
       <c r="G182" t="n">
         <v>238.8424324128827</v>
       </c>
       <c r="H182" t="n">
-        <v>609.0651384423589</v>
+        <v>635.1467320618458</v>
       </c>
       <c r="I182" t="n">
-        <v>899134.2958757071</v>
+        <v>942629.7001684713</v>
       </c>
       <c r="J182" t="n">
         <v>0</v>
@@ -6287,25 +6287,25 @@
         <v>-1</v>
       </c>
       <c r="D183" t="n">
-        <v>920562.8145950198</v>
+        <v>965009.5908432271</v>
       </c>
       <c r="E183" t="n">
         <v>0</v>
       </c>
       <c r="F183" t="n">
-        <v>920562.8145950198</v>
+        <v>965009.5908432271</v>
       </c>
       <c r="G183" t="n">
         <v>242.3782469888344</v>
       </c>
       <c r="H183" t="n">
-        <v>617.046179103197</v>
+        <v>643.5138836743778</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
       <c r="J183" t="n">
-        <v>12075.62311718473</v>
+        <v>12666.59207181714</v>
       </c>
     </row>
     <row r="184">
@@ -6319,22 +6319,22 @@
         <v>1</v>
       </c>
       <c r="D184" t="n">
-        <v>9480.596230839254</v>
+        <v>9764.393641789657</v>
       </c>
       <c r="E184" t="n">
-        <v>3775</v>
+        <v>3958</v>
       </c>
       <c r="F184" t="n">
-        <v>919946.5850017573</v>
+        <v>964366.8793518011</v>
       </c>
       <c r="G184" t="n">
         <v>241.1830433830246</v>
       </c>
       <c r="H184" t="n">
-        <v>616.2295932625509</v>
+        <v>642.7114914260069</v>
       </c>
       <c r="I184" t="n">
-        <v>911082.2183641805</v>
+        <v>955245.1972014374</v>
       </c>
       <c r="J184" t="n">
         <v>0</v>
@@ -6351,25 +6351,25 @@
         <v>-1</v>
       </c>
       <c r="D185" t="n">
-        <v>913130.2143110716</v>
+        <v>957223.4636316068</v>
       </c>
       <c r="E185" t="n">
         <v>0</v>
       </c>
       <c r="F185" t="n">
-        <v>913130.2143110716</v>
+        <v>957223.4636316068</v>
       </c>
       <c r="G185" t="n">
         <v>239.5396358557472</v>
       </c>
       <c r="H185" t="n">
-        <v>612.5072752132673</v>
+        <v>638.8087272302284</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
       <c r="J185" t="n">
-        <v>-7432.600283948239</v>
+        <v>-7786.127211620333</v>
       </c>
     </row>
     <row r="186">
@@ -6383,13 +6383,13 @@
         <v>0</v>
       </c>
       <c r="D186" t="n">
-        <v>913130.2143110716</v>
+        <v>957223.4636316068</v>
       </c>
       <c r="E186" t="n">
         <v>0</v>
       </c>
       <c r="F186" t="n">
-        <v>913130.2143110716</v>
+        <v>957223.4636316068</v>
       </c>
       <c r="G186" t="n">
         <v>237.0745106318652</v>
@@ -6415,13 +6415,13 @@
         <v>0</v>
       </c>
       <c r="D187" t="n">
-        <v>913130.2143110716</v>
+        <v>957223.4636316068</v>
       </c>
       <c r="E187" t="n">
         <v>0</v>
       </c>
       <c r="F187" t="n">
-        <v>913130.2143110716</v>
+        <v>957223.4636316068</v>
       </c>
       <c r="G187" t="n">
         <v>239.7139230025314</v>
@@ -6447,13 +6447,13 @@
         <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>913130.2143110716</v>
+        <v>957223.4636316068</v>
       </c>
       <c r="E188" t="n">
         <v>0</v>
       </c>
       <c r="F188" t="n">
-        <v>913130.2143110716</v>
+        <v>957223.4636316068</v>
       </c>
       <c r="G188" t="n">
         <v>243.0505530229343</v>
@@ -6479,13 +6479,13 @@
         <v>-1</v>
       </c>
       <c r="D189" t="n">
-        <v>913130.2143110716</v>
+        <v>957223.4636316068</v>
       </c>
       <c r="E189" t="n">
         <v>0</v>
       </c>
       <c r="F189" t="n">
-        <v>913130.2143110716</v>
+        <v>957223.4636316068</v>
       </c>
       <c r="G189" t="n">
         <v>242.0545433670528</v>
@@ -6511,13 +6511,13 @@
         <v>0</v>
       </c>
       <c r="D190" t="n">
-        <v>913130.2143110716</v>
+        <v>957223.4636316068</v>
       </c>
       <c r="E190" t="n">
         <v>0</v>
       </c>
       <c r="F190" t="n">
-        <v>913130.2143110716</v>
+        <v>957223.4636316068</v>
       </c>
       <c r="G190" t="n">
         <v>243.2497529162848</v>
@@ -6543,13 +6543,13 @@
         <v>0</v>
       </c>
       <c r="D191" t="n">
-        <v>913130.2143110716</v>
+        <v>957223.4636316068</v>
       </c>
       <c r="E191" t="n">
         <v>0</v>
       </c>
       <c r="F191" t="n">
-        <v>913130.2143110716</v>
+        <v>957223.4636316068</v>
       </c>
       <c r="G191" t="n">
         <v>244.5196662840804</v>
@@ -6575,13 +6575,13 @@
         <v>-1</v>
       </c>
       <c r="D192" t="n">
-        <v>913130.2143110716</v>
+        <v>957223.4636316068</v>
       </c>
       <c r="E192" t="n">
         <v>0</v>
       </c>
       <c r="F192" t="n">
-        <v>913130.2143110716</v>
+        <v>957223.4636316068</v>
       </c>
       <c r="G192" t="n">
         <v>244.6192670060797</v>
@@ -6607,13 +6607,13 @@
         <v>-1</v>
       </c>
       <c r="D193" t="n">
-        <v>913130.2143110716</v>
+        <v>957223.4636316068</v>
       </c>
       <c r="E193" t="n">
         <v>0</v>
       </c>
       <c r="F193" t="n">
-        <v>913130.2143110716</v>
+        <v>957223.4636316068</v>
       </c>
       <c r="G193" t="n">
         <v>244.2457577684107</v>
@@ -6639,13 +6639,13 @@
         <v>0</v>
       </c>
       <c r="D194" t="n">
-        <v>913130.2143110716</v>
+        <v>957223.4636316068</v>
       </c>
       <c r="E194" t="n">
         <v>0</v>
       </c>
       <c r="F194" t="n">
-        <v>913130.2143110716</v>
+        <v>957223.4636316068</v>
       </c>
       <c r="G194" t="n">
         <v>244.3453764176139</v>
@@ -6671,22 +6671,22 @@
         <v>1</v>
       </c>
       <c r="D195" t="n">
-        <v>9449.420017821381</v>
+        <v>9776.663767824641</v>
       </c>
       <c r="E195" t="n">
-        <v>3737</v>
+        <v>3918</v>
       </c>
       <c r="F195" t="n">
-        <v>912518.4229093366</v>
+        <v>956585.4283728438</v>
       </c>
       <c r="G195" t="n">
         <v>241.6561420635577</v>
       </c>
       <c r="H195" t="n">
-        <v>611.7914017349092</v>
+        <v>638.0352587630115</v>
       </c>
       <c r="I195" t="n">
-        <v>903680.7942932502</v>
+        <v>947446.7998637821</v>
       </c>
       <c r="J195" t="n">
         <v>0</v>
@@ -6703,13 +6703,13 @@
         <v>0</v>
       </c>
       <c r="D196" t="n">
-        <v>9449.420017821381</v>
+        <v>9776.663767824641</v>
       </c>
       <c r="E196" t="n">
-        <v>3737</v>
+        <v>3918</v>
       </c>
       <c r="F196" t="n">
-        <v>920613.9807987557</v>
+        <v>965073.0911533479</v>
       </c>
       <c r="G196" t="n">
         <v>243.8224674286685</v>
@@ -6718,7 +6718,7 @@
         <v>0</v>
       </c>
       <c r="I196" t="n">
-        <v>903680.7942932502</v>
+        <v>947446.7998637821</v>
       </c>
       <c r="J196" t="n">
         <v>0</v>
@@ -6735,13 +6735,13 @@
         <v>0</v>
       </c>
       <c r="D197" t="n">
-        <v>9449.420017821381</v>
+        <v>9776.663767824641</v>
       </c>
       <c r="E197" t="n">
-        <v>3737</v>
+        <v>3918</v>
       </c>
       <c r="F197" t="n">
-        <v>927313.6667066572</v>
+        <v>972097.273488686</v>
       </c>
       <c r="G197" t="n">
         <v>245.6152653703066</v>
@@ -6750,7 +6750,7 @@
         <v>0</v>
       </c>
       <c r="I197" t="n">
-        <v>903680.7942932502</v>
+        <v>947446.7998637821</v>
       </c>
       <c r="J197" t="n">
         <v>0</v>
@@ -6767,13 +6767,13 @@
         <v>0</v>
       </c>
       <c r="D198" t="n">
-        <v>9449.420017821381</v>
+        <v>9776.663767824641</v>
       </c>
       <c r="E198" t="n">
-        <v>3737</v>
+        <v>3918</v>
       </c>
       <c r="F198" t="n">
-        <v>927499.7881701099</v>
+        <v>972292.4096657819</v>
       </c>
       <c r="G198" t="n">
         <v>245.6650704180595</v>
@@ -6782,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="I198" t="n">
-        <v>903680.7942932502</v>
+        <v>947446.7998637821</v>
       </c>
       <c r="J198" t="n">
         <v>0</v>
@@ -6796,28 +6796,28 @@
         <v>44391</v>
       </c>
       <c r="C199" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D199" t="n">
-        <v>9449.420017821381</v>
+        <v>967744.9471279567</v>
       </c>
       <c r="E199" t="n">
-        <v>3737</v>
+        <v>0</v>
       </c>
       <c r="F199" t="n">
-        <v>923777.7204352372</v>
+        <v>967744.9471279567</v>
       </c>
       <c r="G199" t="n">
         <v>244.6690662074969</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>645.1180408405836</v>
       </c>
       <c r="I199" t="n">
-        <v>903680.7942932502</v>
+        <v>0</v>
       </c>
       <c r="J199" t="n">
-        <v>0</v>
+        <v>10521.48349634989</v>
       </c>
     </row>
     <row r="200">
@@ -6831,13 +6831,13 @@
         <v>0</v>
       </c>
       <c r="D200" t="n">
-        <v>9449.420017821381</v>
+        <v>967744.9471279567</v>
       </c>
       <c r="E200" t="n">
-        <v>3737</v>
+        <v>0</v>
       </c>
       <c r="F200" t="n">
-        <v>925359.6180893288</v>
+        <v>967744.9471279567</v>
       </c>
       <c r="G200" t="n">
         <v>245.0923730456268</v>
@@ -6846,7 +6846,7 @@
         <v>0</v>
       </c>
       <c r="I200" t="n">
-        <v>903680.7942932502</v>
+        <v>0</v>
       </c>
       <c r="J200" t="n">
         <v>0</v>
@@ -6863,25 +6863,25 @@
         <v>-1</v>
       </c>
       <c r="D201" t="n">
-        <v>929296.9091875806</v>
+        <v>967744.9471279567</v>
       </c>
       <c r="E201" t="n">
         <v>0</v>
       </c>
       <c r="F201" t="n">
-        <v>929296.9091875806</v>
+        <v>967744.9471279567</v>
       </c>
       <c r="G201" t="n">
         <v>246.3124755157507</v>
       </c>
       <c r="H201" t="n">
-        <v>622.2318326014164</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
       <c r="J201" t="n">
-        <v>16166.69487650902</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
@@ -6895,22 +6895,22 @@
         <v>1</v>
       </c>
       <c r="D202" t="n">
-        <v>9467.714413281736</v>
+        <v>9945.149821560926</v>
       </c>
       <c r="E202" t="n">
-        <v>3803</v>
+        <v>3960</v>
       </c>
       <c r="F202" t="n">
-        <v>928675.4345554953</v>
+        <v>967100.7037955723</v>
       </c>
       <c r="G202" t="n">
         <v>241.7059479732352</v>
       </c>
       <c r="H202" t="n">
-        <v>621.4746320853282</v>
+        <v>644.2433323844068</v>
       </c>
       <c r="I202" t="n">
-        <v>919829.1947742988</v>
+        <v>957799.7973063957</v>
       </c>
       <c r="J202" t="n">
         <v>0</v>
@@ -6927,22 +6927,22 @@
         <v>1</v>
       </c>
       <c r="D203" t="n">
-        <v>173.9935699108954</v>
+        <v>164.388407486357</v>
       </c>
       <c r="E203" t="n">
-        <v>3841</v>
+        <v>4000</v>
       </c>
       <c r="F203" t="n">
-        <v>934974.5292849923</v>
+        <v>973661.4315890343</v>
       </c>
       <c r="G203" t="n">
         <v>243.374260795387</v>
       </c>
       <c r="H203" t="n">
-        <v>45.49893314613482</v>
+        <v>45.79098225908929</v>
       </c>
       <c r="I203" t="n">
-        <v>929122.9156176697</v>
+        <v>967580.5587204703</v>
       </c>
       <c r="J203" t="n">
         <v>0</v>
@@ -6959,13 +6959,13 @@
         <v>0</v>
       </c>
       <c r="D204" t="n">
-        <v>173.9935699108954</v>
+        <v>164.388407486357</v>
       </c>
       <c r="E204" t="n">
-        <v>3841</v>
+        <v>4000</v>
       </c>
       <c r="F204" t="n">
-        <v>948555.5987301624</v>
+        <v>987804.6957860352</v>
       </c>
       <c r="G204" t="n">
         <v>246.9100768446372</v>
@@ -6974,7 +6974,7 @@
         <v>0</v>
       </c>
       <c r="I204" t="n">
-        <v>929122.9156176697</v>
+        <v>967580.5587204703</v>
       </c>
       <c r="J204" t="n">
         <v>0</v>
@@ -6991,25 +6991,25 @@
         <v>-1</v>
       </c>
       <c r="D205" t="n">
-        <v>958048.5699271855</v>
+        <v>997693.5285999099</v>
       </c>
       <c r="E205" t="n">
         <v>0</v>
       </c>
       <c r="F205" t="n">
-        <v>958048.5699271855</v>
+        <v>997693.5285999099</v>
       </c>
       <c r="G205" t="n">
         <v>249.5495022494555</v>
       </c>
       <c r="H205" t="n">
-        <v>645.0617828840952</v>
+        <v>668.8688053986933</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
       <c r="J205" t="n">
-        <v>28751.66073960497</v>
+        <v>29948.58147195319</v>
       </c>
     </row>
     <row r="206">
@@ -7023,13 +7023,13 @@
         <v>-1</v>
       </c>
       <c r="D206" t="n">
-        <v>958048.5699271855</v>
+        <v>997693.5285999099</v>
       </c>
       <c r="E206" t="n">
         <v>0</v>
       </c>
       <c r="F206" t="n">
-        <v>958048.5699271855</v>
+        <v>997693.5285999099</v>
       </c>
       <c r="G206" t="n">
         <v>251.4668059402483</v>
@@ -7055,13 +7055,13 @@
         <v>-1</v>
       </c>
       <c r="D207" t="n">
-        <v>958048.5699271855</v>
+        <v>997693.5285999099</v>
       </c>
       <c r="E207" t="n">
         <v>0</v>
       </c>
       <c r="F207" t="n">
-        <v>958048.5699271855</v>
+        <v>997693.5285999099</v>
       </c>
       <c r="G207" t="n">
         <v>251.8901223302856</v>
@@ -7087,13 +7087,13 @@
         <v>-1</v>
       </c>
       <c r="D208" t="n">
-        <v>958048.5699271855</v>
+        <v>997693.5285999099</v>
       </c>
       <c r="E208" t="n">
         <v>0</v>
       </c>
       <c r="F208" t="n">
-        <v>958048.5699271855</v>
+        <v>997693.5285999099</v>
       </c>
       <c r="G208" t="n">
         <v>250.6700020320778</v>
@@ -7119,13 +7119,13 @@
         <v>0</v>
       </c>
       <c r="D209" t="n">
-        <v>958048.5699271855</v>
+        <v>997693.5285999099</v>
       </c>
       <c r="E209" t="n">
         <v>0</v>
       </c>
       <c r="F209" t="n">
-        <v>958048.5699271855</v>
+        <v>997693.5285999099</v>
       </c>
       <c r="G209" t="n">
         <v>251.6660160308678</v>
@@ -7151,13 +7151,13 @@
         <v>-1</v>
       </c>
       <c r="D210" t="n">
-        <v>958048.5699271855</v>
+        <v>997693.5285999099</v>
       </c>
       <c r="E210" t="n">
         <v>0</v>
       </c>
       <c r="F210" t="n">
-        <v>958048.5699271855</v>
+        <v>997693.5285999099</v>
       </c>
       <c r="G210" t="n">
         <v>249.7486984268082</v>
@@ -7183,13 +7183,13 @@
         <v>0</v>
       </c>
       <c r="D211" t="n">
-        <v>958048.5699271855</v>
+        <v>997693.5285999099</v>
       </c>
       <c r="E211" t="n">
         <v>0</v>
       </c>
       <c r="F211" t="n">
-        <v>958048.5699271855</v>
+        <v>997693.5285999099</v>
       </c>
       <c r="G211" t="n">
         <v>253.309417783714</v>
@@ -7215,22 +7215,22 @@
         <v>1</v>
       </c>
       <c r="D212" t="n">
-        <v>9702.561120314253</v>
+        <v>10094.26245680636</v>
       </c>
       <c r="E212" t="n">
-        <v>3672</v>
+        <v>3824</v>
       </c>
       <c r="F212" t="n">
-        <v>957409.9954665778</v>
+        <v>997031.4163075994</v>
       </c>
       <c r="G212" t="n">
         <v>258.0902598982199</v>
       </c>
       <c r="H212" t="n">
-        <v>638.5744606077582</v>
+        <v>662.1122923104758</v>
       </c>
       <c r="I212" t="n">
-        <v>948346.0088068713</v>
+        <v>987599.2661431035</v>
       </c>
       <c r="J212" t="n">
         <v>0</v>
@@ -7247,22 +7247,22 @@
         <v>1</v>
       </c>
       <c r="D213" t="n">
-        <v>296.5230762275149</v>
+        <v>181.9493833095243</v>
       </c>
       <c r="E213" t="n">
-        <v>3709</v>
+        <v>3863</v>
       </c>
       <c r="F213" t="n">
-        <v>938620.5706886792</v>
+        <v>977465.7983795083</v>
       </c>
       <c r="G213" t="n">
         <v>252.9857232710843</v>
       </c>
       <c r="H213" t="n">
-        <v>45.56628305661808</v>
+        <v>45.86986592454338</v>
       </c>
       <c r="I213" t="n">
-        <v>957752.046850958</v>
+        <v>997511.5792166003</v>
       </c>
       <c r="J213" t="n">
         <v>0</v>
@@ -7279,25 +7279,25 @@
         <v>-1</v>
       </c>
       <c r="D214" t="n">
-        <v>948971.2693168431</v>
+        <v>988249.1688568869</v>
       </c>
       <c r="E214" t="n">
         <v>0</v>
       </c>
       <c r="F214" t="n">
-        <v>948971.2693168431</v>
+        <v>988249.1688568869</v>
       </c>
       <c r="G214" t="n">
         <v>255.9488500435434</v>
       </c>
       <c r="H214" t="n">
-        <v>639.5385708869015</v>
+        <v>663.1882446309251</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
       <c r="J214" t="n">
-        <v>-9077.300610342412</v>
+        <v>-9444.359743022942</v>
       </c>
     </row>
     <row r="215">
@@ -7311,13 +7311,13 @@
         <v>0</v>
       </c>
       <c r="D215" t="n">
-        <v>948971.2693168431</v>
+        <v>988249.1688568869</v>
       </c>
       <c r="E215" t="n">
         <v>0</v>
       </c>
       <c r="F215" t="n">
-        <v>948971.2693168431</v>
+        <v>988249.1688568869</v>
       </c>
       <c r="G215" t="n">
         <v>258.3890641539788</v>
@@ -7343,13 +7343,13 @@
         <v>0</v>
       </c>
       <c r="D216" t="n">
-        <v>948971.2693168431</v>
+        <v>988249.1688568869</v>
       </c>
       <c r="E216" t="n">
         <v>0</v>
       </c>
       <c r="F216" t="n">
-        <v>948971.2693168431</v>
+        <v>988249.1688568869</v>
       </c>
       <c r="G216" t="n">
         <v>257.691857341754</v>
@@ -7375,22 +7375,22 @@
         <v>1</v>
       </c>
       <c r="D217" t="n">
-        <v>9628.819634131378</v>
+        <v>10211.06552067146</v>
       </c>
       <c r="E217" t="n">
-        <v>3641</v>
+        <v>3791</v>
       </c>
       <c r="F217" t="n">
-        <v>948338.0937523722</v>
+        <v>987592.7898223059</v>
       </c>
       <c r="G217" t="n">
         <v>257.8163345559574</v>
       </c>
       <c r="H217" t="n">
-        <v>633.1755644709446</v>
+        <v>656.3790345809807</v>
       </c>
       <c r="I217" t="n">
-        <v>939342.4496827117</v>
+        <v>978038.1033362155</v>
       </c>
       <c r="J217" t="n">
         <v>0</v>
@@ -7407,13 +7407,13 @@
         <v>0</v>
       </c>
       <c r="D218" t="n">
-        <v>9628.819634131378</v>
+        <v>10211.06552067146</v>
       </c>
       <c r="E218" t="n">
-        <v>3641</v>
+        <v>3791</v>
       </c>
       <c r="F218" t="n">
-        <v>946706.209221243</v>
+        <v>985893.6757719046</v>
       </c>
       <c r="G218" t="n">
         <v>257.3681377608107</v>
@@ -7422,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="I218" t="n">
-        <v>939342.4496827117</v>
+        <v>978038.1033362155</v>
       </c>
       <c r="J218" t="n">
         <v>0</v>
@@ -7439,25 +7439,25 @@
         <v>-1</v>
       </c>
       <c r="D219" t="n">
-        <v>950423.1821371709</v>
+        <v>989766.660343254</v>
       </c>
       <c r="E219" t="n">
         <v>0</v>
       </c>
       <c r="F219" t="n">
-        <v>950423.1821371709</v>
+        <v>989766.660343254</v>
       </c>
       <c r="G219" t="n">
         <v>258.5633534757052</v>
       </c>
       <c r="H219" t="n">
-        <v>634.8075020030255</v>
+        <v>658.0782038158391</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
       <c r="J219" t="n">
-        <v>1451.912820327794</v>
+        <v>1517.491486367071</v>
       </c>
     </row>
     <row r="220">
@@ -7471,13 +7471,13 @@
         <v>0</v>
       </c>
       <c r="D220" t="n">
-        <v>950423.1821371709</v>
+        <v>989766.660343254</v>
       </c>
       <c r="E220" t="n">
         <v>0</v>
       </c>
       <c r="F220" t="n">
-        <v>950423.1821371709</v>
+        <v>989766.660343254</v>
       </c>
       <c r="G220" t="n">
         <v>260.7794707992347</v>
@@ -7503,13 +7503,13 @@
         <v>-1</v>
       </c>
       <c r="D221" t="n">
-        <v>950423.1821371709</v>
+        <v>989766.660343254</v>
       </c>
       <c r="E221" t="n">
         <v>0</v>
       </c>
       <c r="F221" t="n">
-        <v>950423.1821371709</v>
+        <v>989766.660343254</v>
       </c>
       <c r="G221" t="n">
         <v>260.2814819693032</v>
@@ -7535,13 +7535,13 @@
         <v>0</v>
       </c>
       <c r="D222" t="n">
-        <v>950423.1821371709</v>
+        <v>989766.660343254</v>
       </c>
       <c r="E222" t="n">
         <v>0</v>
       </c>
       <c r="F222" t="n">
-        <v>950423.1821371709</v>
+        <v>989766.660343254</v>
       </c>
       <c r="G222" t="n">
         <v>261.2276742159369</v>
@@ -7564,16 +7564,16 @@
         <v>44425</v>
       </c>
       <c r="C223" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D223" t="n">
-        <v>950423.1821371709</v>
+        <v>989766.660343254</v>
       </c>
       <c r="E223" t="n">
         <v>0</v>
       </c>
       <c r="F223" t="n">
-        <v>950423.1821371709</v>
+        <v>989766.660343254</v>
       </c>
       <c r="G223" t="n">
         <v>263.2196770947451</v>
@@ -7599,13 +7599,13 @@
         <v>-1</v>
       </c>
       <c r="D224" t="n">
-        <v>950423.1821371709</v>
+        <v>989766.660343254</v>
       </c>
       <c r="E224" t="n">
         <v>0</v>
       </c>
       <c r="F224" t="n">
-        <v>950423.1821371709</v>
+        <v>989766.660343254</v>
       </c>
       <c r="G224" t="n">
         <v>265.9587190424461</v>
@@ -7631,13 +7631,13 @@
         <v>0</v>
       </c>
       <c r="D225" t="n">
-        <v>950423.1821371709</v>
+        <v>989766.660343254</v>
       </c>
       <c r="E225" t="n">
         <v>0</v>
       </c>
       <c r="F225" t="n">
-        <v>950423.1821371709</v>
+        <v>989766.660343254</v>
       </c>
       <c r="G225" t="n">
         <v>263.1200993541098</v>
@@ -7663,22 +7663,22 @@
         <v>1</v>
       </c>
       <c r="D226" t="n">
-        <v>9790.660461411277</v>
+        <v>10120.96202067253</v>
       </c>
       <c r="E226" t="n">
-        <v>3544</v>
+        <v>3691</v>
       </c>
       <c r="F226" t="n">
-        <v>949789.2329936515</v>
+        <v>989109.3173300683</v>
       </c>
       <c r="G226" t="n">
         <v>265.2366175316705</v>
       </c>
       <c r="H226" t="n">
-        <v>633.9491435193443</v>
+        <v>657.3430131856376</v>
       </c>
       <c r="I226" t="n">
-        <v>940632.5216757597</v>
+        <v>979645.6983225815</v>
       </c>
       <c r="J226" t="n">
         <v>0</v>
@@ -7695,22 +7695,22 @@
         <v>1</v>
       </c>
       <c r="D227" t="n">
-        <v>113.945085142975</v>
+        <v>176.5587172856664</v>
       </c>
       <c r="E227" t="n">
-        <v>3580</v>
+        <v>3728</v>
       </c>
       <c r="F227" t="n">
-        <v>957862.075291478</v>
+        <v>997518.7457031003</v>
       </c>
       <c r="G227" t="n">
         <v>267.5274106721606</v>
       </c>
       <c r="H227" t="n">
-        <v>45.72859207051867</v>
+        <v>45.88910851692197</v>
       </c>
       <c r="I227" t="n">
-        <v>950309.237052028</v>
+        <v>989590.1016259684</v>
       </c>
       <c r="J227" t="n">
         <v>0</v>
@@ -7727,13 +7727,13 @@
         <v>1</v>
       </c>
       <c r="D228" t="n">
-        <v>113.945085142975</v>
+        <v>176.5587172856664</v>
       </c>
       <c r="E228" t="n">
-        <v>3580</v>
+        <v>3728</v>
       </c>
       <c r="F228" t="n">
-        <v>951800.4406680426</v>
+        <v>991206.518363389</v>
       </c>
       <c r="G228" t="n">
         <v>265.8342166432681</v>
@@ -7742,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="I228" t="n">
-        <v>950309.237052028</v>
+        <v>989590.1016259684</v>
       </c>
       <c r="J228" t="n">
         <v>0</v>
@@ -7759,13 +7759,13 @@
         <v>1</v>
       </c>
       <c r="D229" t="n">
-        <v>113.945085142975</v>
+        <v>176.5587172856664</v>
       </c>
       <c r="E229" t="n">
-        <v>3580</v>
+        <v>3728</v>
       </c>
       <c r="F229" t="n">
-        <v>945203.9294056741</v>
+        <v>984337.3021661516</v>
       </c>
       <c r="G229" t="n">
         <v>263.9916157319919</v>
@@ -7774,7 +7774,7 @@
         <v>0</v>
       </c>
       <c r="I229" t="n">
-        <v>950309.237052028</v>
+        <v>989590.1016259684</v>
       </c>
       <c r="J229" t="n">
         <v>0</v>
@@ -7791,13 +7791,13 @@
         <v>1</v>
       </c>
       <c r="D230" t="n">
-        <v>113.945085142975</v>
+        <v>176.5587172856664</v>
       </c>
       <c r="E230" t="n">
-        <v>3580</v>
+        <v>3728</v>
       </c>
       <c r="F230" t="n">
-        <v>945293.0040022162</v>
+        <v>984430.0591761819</v>
       </c>
       <c r="G230" t="n">
         <v>264.0164969042104</v>
@@ -7806,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="I230" t="n">
-        <v>950309.237052028</v>
+        <v>989590.1016259684</v>
       </c>
       <c r="J230" t="n">
         <v>0</v>
@@ -7823,13 +7823,13 @@
         <v>1</v>
       </c>
       <c r="D231" t="n">
-        <v>113.945085142975</v>
+        <v>176.5587172856664</v>
       </c>
       <c r="E231" t="n">
-        <v>3580</v>
+        <v>3728</v>
       </c>
       <c r="F231" t="n">
-        <v>950195.8713538796</v>
+        <v>989535.6148988081</v>
       </c>
       <c r="G231" t="n">
         <v>265.3860129242281</v>
@@ -7838,7 +7838,7 @@
         <v>0</v>
       </c>
       <c r="I231" t="n">
-        <v>950309.237052028</v>
+        <v>989590.1016259684</v>
       </c>
       <c r="J231" t="n">
         <v>0</v>
@@ -7855,25 +7855,25 @@
         <v>-1</v>
       </c>
       <c r="D232" t="n">
-        <v>952495.7732371446</v>
+        <v>991933.4883124426</v>
       </c>
       <c r="E232" t="n">
         <v>0</v>
       </c>
       <c r="F232" t="n">
-        <v>952495.7732371446</v>
+        <v>991933.4883124426</v>
       </c>
       <c r="G232" t="n">
         <v>266.2077073484318</v>
       </c>
       <c r="H232" t="n">
-        <v>641.7641553844317</v>
+        <v>665.4033997969724</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
       <c r="J232" t="n">
-        <v>2072.591099973652</v>
+        <v>2166.827969188569</v>
       </c>
     </row>
     <row r="233">
@@ -7887,22 +7887,22 @@
         <v>1</v>
       </c>
       <c r="D233" t="n">
-        <v>9751.477780022662</v>
+        <v>10033.18020140807</v>
       </c>
       <c r="E233" t="n">
-        <v>3539</v>
+        <v>3686</v>
       </c>
       <c r="F233" t="n">
-        <v>951860.5577891391</v>
+        <v>991274.7933445567</v>
       </c>
       <c r="G233" t="n">
         <v>266.2077083947772</v>
       </c>
       <c r="H233" t="n">
-        <v>635.2154480054699</v>
+        <v>658.6949678858892</v>
       </c>
       <c r="I233" t="n">
-        <v>942744.2954571219</v>
+        <v>981900.3081110345</v>
       </c>
       <c r="J233" t="n">
         <v>0</v>
@@ -7919,25 +7919,25 @@
         <v>-1</v>
       </c>
       <c r="D234" t="n">
-        <v>948847.5284391979</v>
+        <v>988139.5168444485</v>
       </c>
       <c r="E234" t="n">
         <v>0</v>
       </c>
       <c r="F234" t="n">
-        <v>948847.5284391979</v>
+        <v>988139.5168444485</v>
       </c>
       <c r="G234" t="n">
         <v>265.5354163781612</v>
       </c>
       <c r="H234" t="n">
-        <v>633.7879031373876</v>
+        <v>657.2081268619414</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
       <c r="J234" t="n">
-        <v>-3648.244797946652</v>
+        <v>-3793.971467994037</v>
       </c>
     </row>
     <row r="235">
@@ -7951,13 +7951,13 @@
         <v>0</v>
       </c>
       <c r="D235" t="n">
-        <v>948847.5284391979</v>
+        <v>988139.5168444485</v>
       </c>
       <c r="E235" t="n">
         <v>0</v>
       </c>
       <c r="F235" t="n">
-        <v>948847.5284391979</v>
+        <v>988139.5168444485</v>
       </c>
       <c r="G235" t="n">
         <v>265.9499969482422</v>
@@ -7983,13 +7983,13 @@
         <v>-1</v>
       </c>
       <c r="D236" t="n">
-        <v>948847.5284391979</v>
+        <v>988139.5168444485</v>
       </c>
       <c r="E236" t="n">
         <v>0</v>
       </c>
       <c r="F236" t="n">
-        <v>948847.5284391979</v>
+        <v>988139.5168444485</v>
       </c>
       <c r="G236" t="n">
         <v>265.25</v>
@@ -8015,13 +8015,13 @@
         <v>0</v>
       </c>
       <c r="D237" t="n">
-        <v>948847.5284391979</v>
+        <v>988139.5168444485</v>
       </c>
       <c r="E237" t="n">
         <v>0</v>
       </c>
       <c r="F237" t="n">
-        <v>948847.5284391979</v>
+        <v>988139.5168444485</v>
       </c>
       <c r="G237" t="n">
         <v>268.125</v>
@@ -8047,13 +8047,13 @@
         <v>0</v>
       </c>
       <c r="D238" t="n">
-        <v>948847.5284391979</v>
+        <v>988139.5168444485</v>
       </c>
       <c r="E238" t="n">
         <v>0</v>
       </c>
       <c r="F238" t="n">
-        <v>948847.5284391979</v>
+        <v>988139.5168444485</v>
       </c>
       <c r="G238" t="n">
         <v>266.9499969482422</v>
@@ -8079,13 +8079,13 @@
         <v>-1</v>
       </c>
       <c r="D239" t="n">
-        <v>948847.5284391979</v>
+        <v>988139.5168444485</v>
       </c>
       <c r="E239" t="n">
         <v>0</v>
       </c>
       <c r="F239" t="n">
-        <v>948847.5284391979</v>
+        <v>988139.5168444485</v>
       </c>
       <c r="G239" t="n">
         <v>264.7999877929688</v>
@@ -8111,13 +8111,13 @@
         <v>-1</v>
       </c>
       <c r="D240" t="n">
-        <v>948847.5284391979</v>
+        <v>988139.5168444485</v>
       </c>
       <c r="E240" t="n">
         <v>0</v>
       </c>
       <c r="F240" t="n">
-        <v>948847.5284391979</v>
+        <v>988139.5168444485</v>
       </c>
       <c r="G240" t="n">
         <v>264.0500030517578</v>
@@ -8143,13 +8143,13 @@
         <v>0</v>
       </c>
       <c r="D241" t="n">
-        <v>948847.5284391979</v>
+        <v>988139.5168444485</v>
       </c>
       <c r="E241" t="n">
         <v>0</v>
       </c>
       <c r="F241" t="n">
-        <v>948847.5284391979</v>
+        <v>988139.5168444485</v>
       </c>
       <c r="G241" t="n">
         <v>264.375</v>
@@ -8175,22 +8175,22 @@
         <v>1</v>
       </c>
       <c r="D242" t="n">
-        <v>9595.053341999435</v>
+        <v>10254.0017077908</v>
       </c>
       <c r="E242" t="n">
-        <v>3525</v>
+        <v>3670</v>
       </c>
       <c r="F242" t="n">
-        <v>948214.4068271068</v>
+        <v>987483.2293078884</v>
       </c>
       <c r="G242" t="n">
         <v>266.2749938964844</v>
       </c>
       <c r="H242" t="n">
-        <v>633.1216120910644</v>
+        <v>656.2875365600587</v>
       </c>
       <c r="I242" t="n">
-        <v>939252.4750971985</v>
+        <v>977885.5151366577</v>
       </c>
       <c r="J242" t="n">
         <v>0</v>
@@ -8204,28 +8204,28 @@
         <v>44453</v>
       </c>
       <c r="C243" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="D243" t="n">
-        <v>9595.053341999435</v>
+        <v>984626.296551022</v>
       </c>
       <c r="E243" t="n">
-        <v>3525</v>
+        <v>0</v>
       </c>
       <c r="F243" t="n">
-        <v>946099.4390994457</v>
+        <v>984626.296551022</v>
       </c>
       <c r="G243" t="n">
         <v>265.6750030517578</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>654.9663567199707</v>
       </c>
       <c r="I243" t="n">
-        <v>939252.4750971985</v>
+        <v>0</v>
       </c>
       <c r="J243" t="n">
-        <v>0</v>
+        <v>-3513.220293426537</v>
       </c>
     </row>
     <row r="244">
@@ -8239,25 +8239,25 @@
         <v>-1</v>
       </c>
       <c r="D244" t="n">
-        <v>943706.1439679912</v>
+        <v>984626.296551022</v>
       </c>
       <c r="E244" t="n">
         <v>0</v>
       </c>
       <c r="F244" t="n">
-        <v>943706.1439679912</v>
+        <v>984626.296551022</v>
       </c>
       <c r="G244" t="n">
         <v>265.1750030517578</v>
       </c>
       <c r="H244" t="n">
-        <v>630.7951314544679</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
       <c r="J244" t="n">
-        <v>-5141.384471206693</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
@@ -8271,13 +8271,13 @@
         <v>-1</v>
       </c>
       <c r="D245" t="n">
-        <v>943706.1439679912</v>
+        <v>984626.296551022</v>
       </c>
       <c r="E245" t="n">
         <v>0</v>
       </c>
       <c r="F245" t="n">
-        <v>943706.1439679912</v>
+        <v>984626.296551022</v>
       </c>
       <c r="G245" t="n">
         <v>265.8249969482422</v>
@@ -8303,13 +8303,13 @@
         <v>-1</v>
       </c>
       <c r="D246" t="n">
-        <v>943706.1439679912</v>
+        <v>984626.296551022</v>
       </c>
       <c r="E246" t="n">
         <v>0</v>
       </c>
       <c r="F246" t="n">
-        <v>943706.1439679912</v>
+        <v>984626.296551022</v>
       </c>
       <c r="G246" t="n">
         <v>264.1750030517578</v>
@@ -8332,25 +8332,25 @@
         <v>44459</v>
       </c>
       <c r="C247" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D247" t="n">
-        <v>943706.1439679912</v>
+        <v>10086.28070486109</v>
       </c>
       <c r="E247" t="n">
-        <v>0</v>
+        <v>3758</v>
       </c>
       <c r="F247" t="n">
-        <v>943706.1439679912</v>
+        <v>983972.0151103786</v>
       </c>
       <c r="G247" t="n">
         <v>259.1500091552734</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>654.2814406433106</v>
       </c>
       <c r="I247" t="n">
-        <v>0</v>
+        <v>974540.0158461609</v>
       </c>
       <c r="J247" t="n">
         <v>0</v>
@@ -8367,22 +8367,22 @@
         <v>1</v>
       </c>
       <c r="D248" t="n">
-        <v>9756.741338660784</v>
+        <v>158.5014488247151</v>
       </c>
       <c r="E248" t="n">
-        <v>3589</v>
+        <v>3796</v>
       </c>
       <c r="F248" t="n">
-        <v>943076.2022914196</v>
+        <v>987308.3130332974</v>
       </c>
       <c r="G248" t="n">
         <v>260.0500030517578</v>
       </c>
       <c r="H248" t="n">
-        <v>629.9416765716553</v>
+        <v>45.87914006958008</v>
       </c>
       <c r="I248" t="n">
-        <v>933949.4026293304</v>
+        <v>984467.7951021973</v>
       </c>
       <c r="J248" t="n">
         <v>0</v>
@@ -8399,25 +8399,25 @@
         <v>-1</v>
       </c>
       <c r="D249" t="n">
-        <v>945943.4579422222</v>
+        <v>990344.9756413907</v>
       </c>
       <c r="E249" t="n">
         <v>0</v>
       </c>
       <c r="F249" t="n">
-        <v>945943.4579422222</v>
+        <v>990344.9756413907</v>
       </c>
       <c r="G249" t="n">
         <v>261.0250091552734</v>
       </c>
       <c r="H249" t="n">
-        <v>632.0412547149659</v>
+        <v>664.4605608520509</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
       <c r="J249" t="n">
-        <v>2237.313974231016</v>
+        <v>5718.679090368561</v>
       </c>
     </row>
     <row r="250">
@@ -8431,13 +8431,13 @@
         <v>0</v>
       </c>
       <c r="D250" t="n">
-        <v>945943.4579422222</v>
+        <v>990344.9756413907</v>
       </c>
       <c r="E250" t="n">
         <v>0</v>
       </c>
       <c r="F250" t="n">
-        <v>945943.4579422222</v>
+        <v>990344.9756413907</v>
       </c>
       <c r="G250" t="n">
         <v>263.7250061035156</v>
@@ -8463,13 +8463,13 @@
         <v>-1</v>
       </c>
       <c r="D251" t="n">
-        <v>945943.4579422222</v>
+        <v>990344.9756413907</v>
       </c>
       <c r="E251" t="n">
         <v>0</v>
       </c>
       <c r="F251" t="n">
-        <v>945943.4579422222</v>
+        <v>990344.9756413907</v>
       </c>
       <c r="G251" t="n">
         <v>263.5749969482422</v>
@@ -8495,22 +8495,22 @@
         <v>1</v>
       </c>
       <c r="D252" t="n">
-        <v>9633.80811983455</v>
+        <v>10024.05787863431</v>
       </c>
       <c r="E252" t="n">
-        <v>3510</v>
+        <v>3675</v>
       </c>
       <c r="F252" t="n">
-        <v>945312.1009665142</v>
+        <v>989687.2277394742</v>
       </c>
       <c r="G252" t="n">
         <v>266.5750122070312</v>
       </c>
       <c r="H252" t="n">
-        <v>631.3569757080079</v>
+        <v>657.7479019165039</v>
       </c>
       <c r="I252" t="n">
-        <v>936309.6498223877</v>
+        <v>980320.9177627563</v>
       </c>
       <c r="J252" t="n">
         <v>0</v>
@@ -8527,25 +8527,25 @@
         <v>-1</v>
       </c>
       <c r="D253" t="n">
-        <v>924247.2186198345</v>
+        <v>967635.4041286343</v>
       </c>
       <c r="E253" t="n">
         <v>0</v>
       </c>
       <c r="F253" t="n">
-        <v>924247.2186198345</v>
+        <v>967635.4041286343</v>
       </c>
       <c r="G253" t="n">
         <v>260.75</v>
       </c>
       <c r="H253" t="n">
-        <v>619.0895</v>
+        <v>644.9037500000001</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
       <c r="J253" t="n">
-        <v>-21696.23932238773</v>
+        <v>-22709.5715127564</v>
       </c>
     </row>
     <row r="254">
@@ -8559,13 +8559,13 @@
         <v>0</v>
       </c>
       <c r="D254" t="n">
-        <v>924247.2186198345</v>
+        <v>967635.4041286343</v>
       </c>
       <c r="E254" t="n">
         <v>0</v>
       </c>
       <c r="F254" t="n">
-        <v>924247.2186198345</v>
+        <v>967635.4041286343</v>
       </c>
       <c r="G254" t="n">
         <v>258.4000091552734</v>
@@ -8591,22 +8591,22 @@
         <v>1</v>
       </c>
       <c r="D255" t="n">
-        <v>9438.532868210979</v>
+        <v>9956.410603219216</v>
       </c>
       <c r="E255" t="n">
-        <v>3542</v>
+        <v>3708</v>
       </c>
       <c r="F255" t="n">
-        <v>923628.7544868633</v>
+        <v>966991.2332350551</v>
       </c>
       <c r="G255" t="n">
         <v>258.1000061035156</v>
       </c>
       <c r="H255" t="n">
-        <v>618.4641329711915</v>
+        <v>644.1708935791016</v>
       </c>
       <c r="I255" t="n">
-        <v>914808.6857516236</v>
+        <v>957678.9935254151</v>
       </c>
       <c r="J255" t="n">
         <v>0</v>
